--- a/MCNP/wedge_data_2025-12-31.xlsx
+++ b/MCNP/wedge_data_2025-12-31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP\emma-openmc\MCNP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77779149-C978-45F5-9AD4-A64A2C846AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1A2C14-C8FC-42A1-A467-99D72703E55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7692" yWindow="504" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58FC2A7-2007-48F8-8A3D-08B47124466B}">
   <dimension ref="A1:Y55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,9 +834,7 @@
       <c r="R10" s="2">
         <v>2.7354699999999998E-3</v>
       </c>
-      <c r="S10" s="2">
-        <v>3.4120100000000002E-4</v>
-      </c>
+      <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
     </row>
@@ -869,7 +867,7 @@
       </c>
       <c r="K11" s="5">
         <f t="shared" ref="K11:K22" si="0">R11*$V$3*$Y$3*1E-24</f>
-        <v>0</v>
+        <v>1.7111952961599997E-4</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="9">
@@ -882,13 +880,13 @@
       </c>
       <c r="O11" s="9">
         <f>K11/H11</f>
-        <v>0</v>
+        <v>0.9717826949969095</v>
       </c>
       <c r="P11" s="6"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5">
-        <v>1.71294E-3</v>
-      </c>
+      <c r="R11" s="5">
+        <v>1.36516E-2</v>
+      </c>
+      <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
     </row>
@@ -922,7 +920,7 @@
       </c>
       <c r="K12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.1184438984000003E-4</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="11">
@@ -935,14 +933,14 @@
       </c>
       <c r="O12" s="11">
         <f>K12/H12</f>
-        <v>0</v>
+        <v>0.97152334831509268</v>
       </c>
       <c r="P12" s="13"/>
       <c r="Q12" s="4"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2">
-        <v>5.0748800000000004E-3</v>
-      </c>
+      <c r="R12" s="2">
+        <v>4.0834000000000002E-2</v>
+      </c>
+      <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
     </row>
@@ -975,7 +973,7 @@
       </c>
       <c r="K13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.88413162972E-3</v>
       </c>
       <c r="M13" s="9">
         <f>I13/H13</f>
@@ -987,13 +985,13 @@
       </c>
       <c r="O13" s="9">
         <f>K13/H13</f>
-        <v>0</v>
+        <v>0.97189712159487418</v>
       </c>
       <c r="P13" s="6"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5">
-        <v>4.88257E-2</v>
-      </c>
+      <c r="R13" s="5">
+        <v>0.38964700000000002</v>
+      </c>
+      <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
     </row>
@@ -1027,7 +1025,7 @@
       </c>
       <c r="K14" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.338383665239999E-3</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="11">
@@ -1040,14 +1038,14 @@
       </c>
       <c r="O14" s="11">
         <f>K14/H14</f>
-        <v>0</v>
+        <v>0.97176866745242829</v>
       </c>
       <c r="P14" s="13"/>
       <c r="Q14" s="4"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2">
-        <v>9.35087E-2</v>
-      </c>
+      <c r="R14" s="2">
+        <v>0.74499899999999997</v>
+      </c>
+      <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
     </row>
@@ -1097,9 +1095,7 @@
       </c>
       <c r="P15" s="6"/>
       <c r="R15" s="5"/>
-      <c r="S15" s="5">
-        <v>0.17382600000000001</v>
-      </c>
+      <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
     </row>
@@ -1151,9 +1147,7 @@
       <c r="P16" s="13"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="2"/>
-      <c r="S16" s="2">
-        <v>0.24676500000000001</v>
-      </c>
+      <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
     </row>
@@ -1203,9 +1197,7 @@
       </c>
       <c r="P17" s="6"/>
       <c r="R17" s="5"/>
-      <c r="S17" s="5">
-        <v>0.31512699999999999</v>
-      </c>
+      <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
     </row>
@@ -1257,9 +1249,7 @@
       <c r="P18" s="13"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="2"/>
-      <c r="S18" s="2">
-        <v>0.379913</v>
-      </c>
+      <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
     </row>
@@ -1309,9 +1299,7 @@
       </c>
       <c r="P19" s="6"/>
       <c r="R19" s="5"/>
-      <c r="S19" s="5">
-        <v>0.57646399999999998</v>
-      </c>
+      <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
     </row>
@@ -1363,9 +1351,7 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="2"/>
-      <c r="S20" s="2">
-        <v>1.0105200000000001</v>
-      </c>
+      <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
     </row>
@@ -1415,9 +1401,7 @@
       </c>
       <c r="P21" s="6"/>
       <c r="R21" s="5"/>
-      <c r="S21" s="5">
-        <v>1.40612</v>
-      </c>
+      <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
     </row>
@@ -1469,9 +1453,7 @@
       <c r="P22" s="13"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="2"/>
-      <c r="S22" s="2">
-        <v>1.78573</v>
-      </c>
+      <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
     </row>

--- a/MCNP/wedge_data_2025-12-31.xlsx
+++ b/MCNP/wedge_data_2025-12-31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP\emma-openmc\MCNP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1A2C14-C8FC-42A1-A467-99D72703E55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FB8640-83BF-45A8-9CDD-E31A01C958C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7692" yWindow="504" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28824" yWindow="2376" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t>BISO vol%</t>
   </si>
@@ -143,12 +143,6 @@
     <t>MCNP</t>
   </si>
   <si>
-    <t>No S(a,b)</t>
-  </si>
-  <si>
-    <t>With S(a,b)</t>
-  </si>
-  <si>
     <t>=OMC-GE/D</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
     <t>=MCNP-NoSab/D</t>
   </si>
   <si>
-    <t>=MCNP-Sab/D</t>
-  </si>
-  <si>
     <t>WEDGE B = Random packed BISO</t>
   </si>
   <si>
@@ -168,6 +159,24 @@
   </si>
   <si>
     <t>WEDGE C = Fixed lattice BISO</t>
+  </si>
+  <si>
+    <t>Emma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1.84484e-05 +/- 3.13867e-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9.71272e-05 +/- 8.74883e-06</t>
+  </si>
+  <si>
+    <t>0.000270845 +/- 6.94483e-06</t>
+  </si>
+  <si>
+    <t>Homog.</t>
+  </si>
+  <si>
+    <t>MCNP DATA COLLATED</t>
   </si>
 </sst>
 </file>
@@ -178,7 +187,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,11 +205,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -239,6 +267,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -268,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -285,15 +319,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="11" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58FC2A7-2007-48F8-8A3D-08B47124466B}">
-  <dimension ref="A1:Y55"/>
+  <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,150 +632,143 @@
     <col min="9" max="9" width="14.21875" customWidth="1"/>
     <col min="10" max="10" width="15.88671875" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" style="18" customWidth="1"/>
-    <col min="15" max="15" width="16.44140625" customWidth="1"/>
-    <col min="16" max="16" width="15.5546875" customWidth="1"/>
-    <col min="17" max="17" width="2.77734375" customWidth="1"/>
+    <col min="12" max="13" width="12.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="Q2" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="S2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="R3" t="s">
+      <c r="P3" t="s">
         <v>9</v>
       </c>
-      <c r="S3">
+      <c r="Q3">
         <f>4/3*PI()*(0.04)^3</f>
         <v>2.6808257310632905E-4</v>
       </c>
-      <c r="U3" t="s">
+      <c r="S3" t="s">
         <v>23</v>
       </c>
-      <c r="V3">
+      <c r="T3">
         <v>2012</v>
       </c>
-      <c r="X3" t="s">
+      <c r="V3" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="W3" s="2">
         <v>6.23E+18</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="R4" t="s">
+      <c r="P4" t="s">
         <v>8</v>
       </c>
-      <c r="S4">
+      <c r="Q4">
         <f>4/3*PI()*(0.05)^3</f>
         <v>5.2359877559829892E-4</v>
       </c>
-      <c r="U4" t="s">
+      <c r="S4" t="s">
         <v>11</v>
       </c>
-      <c r="V4">
+      <c r="T4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="R5" t="s">
+      <c r="P5" t="s">
         <v>10</v>
       </c>
-      <c r="S5">
-        <f>(238.02+32)/238.05 / S3 / 10.5 / 100^3 * 1000</f>
+      <c r="Q5">
+        <f>(238.02+32)/238.05 / Q3 / 10.5 / 100^3 * 1000</f>
         <v>0.40296735505064929</v>
       </c>
-      <c r="U5" t="s">
+      <c r="S5" t="s">
         <v>12</v>
       </c>
-      <c r="V5">
+      <c r="T5">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="H7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="I7" s="1"/>
-      <c r="R7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S7" s="1"/>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="17" t="s">
+      <c r="J8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L8" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="M8" s="14" t="s">
+      <c r="L8" s="14" t="s">
         <v>21</v>
       </c>
+      <c r="M8" s="14"/>
       <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="R8" s="8" t="s">
+      <c r="P8" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
       <c r="S8" s="8"/>
       <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-    </row>
-    <row r="9" spans="1:25" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -759,37 +793,28 @@
       <c r="J9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="M9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M9" s="15" t="s">
+      <c r="N9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N9" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="R9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.1</v>
       </c>
       <c r="B10" s="11">
-        <f>A10*$S$5</f>
+        <f t="shared" ref="B10:B22" si="0">A10*$Q$5</f>
         <v>4.0296735505064935E-2</v>
       </c>
       <c r="C10" s="12">
@@ -803,47 +828,45 @@
         <v>29.746282999999998</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="2">
+      <c r="H10" s="27">
         <v>3.52725672373683E-5</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="22">
         <v>3.4271699999999999E-5</v>
       </c>
       <c r="J10" s="2">
         <v>3.4428100000000003E-5</v>
       </c>
       <c r="K10" s="2">
-        <f>R10*$V$3*$Y$3*1E-24</f>
+        <f>P10*$T$3*$W$3*1E-24</f>
         <v>3.4288459937199994E-5</v>
       </c>
-      <c r="L10" s="2"/>
+      <c r="L10" s="11">
+        <f t="shared" ref="L10:L22" si="1">I10/H10</f>
+        <v>0.97162476916882967</v>
+      </c>
       <c r="M10" s="11">
-        <f>I10/H10</f>
-        <v>0.97162476916882967</v>
+        <f t="shared" ref="M10:M22" si="2">J10/H10</f>
+        <v>0.97605880990500582</v>
       </c>
       <c r="N10" s="11">
-        <f>J10/H10</f>
-        <v>0.97605880990500582</v>
-      </c>
-      <c r="O10" s="11">
-        <f>K10/H10</f>
+        <f t="shared" ref="N10:N22" si="3">K10/H10</f>
         <v>0.97209992418341107</v>
       </c>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="2">
+      <c r="O10" s="4"/>
+      <c r="P10" s="2">
         <v>2.7354699999999998E-3</v>
       </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
       <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-    </row>
-    <row r="11" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>0.5</v>
       </c>
       <c r="B11" s="9">
-        <f>A11*$S$5</f>
+        <f t="shared" si="0"/>
         <v>0.20148367752532464</v>
       </c>
       <c r="C11" s="10">
@@ -856,46 +879,44 @@
         <v>13.302942</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="5">
+      <c r="H11" s="28">
         <v>1.76088265923015E-4</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="26">
         <v>1.7047000000000001E-4</v>
       </c>
       <c r="J11" s="5">
         <v>1.7116899999999999E-4</v>
       </c>
       <c r="K11" s="5">
-        <f t="shared" ref="K11:K22" si="0">R11*$V$3*$Y$3*1E-24</f>
+        <f t="shared" ref="K11:K22" si="4">P11*$T$3*$W$3*1E-24</f>
         <v>1.7111952961599997E-4</v>
       </c>
-      <c r="L11" s="5"/>
+      <c r="L11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.96809403571802299</v>
+      </c>
       <c r="M11" s="9">
-        <f t="shared" ref="M11:M22" si="1">I11/H11</f>
-        <v>0.96809403571802299</v>
+        <f t="shared" si="2"/>
+        <v>0.97206363582928523</v>
       </c>
       <c r="N11" s="9">
-        <f>J11/H11</f>
-        <v>0.97206363582928523</v>
-      </c>
-      <c r="O11" s="9">
-        <f>K11/H11</f>
+        <f t="shared" si="3"/>
         <v>0.9717826949969095</v>
       </c>
-      <c r="P11" s="6"/>
-      <c r="R11" s="5">
+      <c r="P11" s="5">
         <v>1.36516E-2</v>
       </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1.5</v>
       </c>
       <c r="B12" s="11">
-        <f>A12*$S$5</f>
+        <f t="shared" si="0"/>
         <v>0.60445103257597399</v>
       </c>
       <c r="C12" s="12">
@@ -909,47 +930,45 @@
         <v>7.6804569999999996</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="2">
+      <c r="H12" s="27">
         <v>5.2684723504348998E-4</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="22">
         <v>5.1337799999999999E-4</v>
       </c>
       <c r="J12" s="2">
         <v>5.1237400000000001E-4</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>5.1184438984000003E-4</v>
       </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="11">
+      <c r="L12" s="11">
         <f t="shared" si="1"/>
         <v>0.97443426832755775</v>
       </c>
+      <c r="M12" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97252859257713431</v>
+      </c>
       <c r="N12" s="11">
-        <f>J12/H12</f>
-        <v>0.97252859257713431</v>
-      </c>
-      <c r="O12" s="11">
-        <f>K12/H12</f>
+        <f t="shared" si="3"/>
         <v>0.97152334831509268</v>
       </c>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="2">
+      <c r="O12" s="4"/>
+      <c r="P12" s="2">
         <v>4.0834000000000002E-2</v>
       </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-    </row>
-    <row r="13" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>15</v>
       </c>
       <c r="B13" s="9">
-        <f>A13*$S$5</f>
+        <f t="shared" si="0"/>
         <v>6.044510325759739</v>
       </c>
       <c r="C13" s="10">
@@ -962,45 +981,44 @@
         <v>2.4287740000000002</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="5">
+      <c r="H13" s="28">
         <v>5.02535867346246E-3</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="26">
         <v>4.8983400000000002E-3</v>
       </c>
       <c r="J13" s="5">
         <v>4.8734900000000003E-3</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>4.88413162972E-3</v>
       </c>
+      <c r="L13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.97472445616007264</v>
+      </c>
       <c r="M13" s="9">
-        <f>I13/H13</f>
-        <v>0.97472445616007264</v>
+        <f t="shared" si="2"/>
+        <v>0.96977953548580786</v>
       </c>
       <c r="N13" s="9">
-        <f>J13/H13</f>
-        <v>0.96977953548580786</v>
-      </c>
-      <c r="O13" s="9">
-        <f>K13/H13</f>
+        <f t="shared" si="3"/>
         <v>0.97189712159487418</v>
       </c>
-      <c r="P13" s="6"/>
-      <c r="R13" s="5">
+      <c r="P13" s="5">
         <v>0.38964700000000002</v>
       </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
       <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>30</v>
       </c>
       <c r="B14" s="11">
-        <f>A14*$S$5</f>
+        <f t="shared" si="0"/>
         <v>12.089020651519478</v>
       </c>
       <c r="C14" s="12">
@@ -1014,47 +1032,45 @@
         <v>1.7174020000000001</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="2">
+      <c r="H14" s="27">
         <v>9.6096776712520909E-3</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="22">
         <v>9.3411799999999993E-3</v>
       </c>
       <c r="J14" s="2">
         <v>9.3206399999999998E-3</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>9.338383665239999E-3</v>
       </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="11">
+      <c r="L14" s="11">
         <f t="shared" si="1"/>
         <v>0.97205965897739544</v>
       </c>
+      <c r="M14" s="11">
+        <f t="shared" si="2"/>
+        <v>0.9699222303660856</v>
+      </c>
       <c r="N14" s="11">
-        <f>J14/H14</f>
-        <v>0.9699222303660856</v>
-      </c>
-      <c r="O14" s="11">
-        <f>K14/H14</f>
+        <f t="shared" si="3"/>
         <v>0.97176866745242829</v>
       </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="2">
+      <c r="O14" s="4"/>
+      <c r="P14" s="2">
         <v>0.74499899999999997</v>
       </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-    </row>
-    <row r="15" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>60</v>
       </c>
       <c r="B15" s="9">
-        <f>A15*$S$5</f>
+        <f t="shared" si="0"/>
         <v>24.178041303038956</v>
       </c>
       <c r="C15" s="10">
@@ -1067,44 +1083,44 @@
         <v>1.2143870000000001</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="5">
+      <c r="H15" s="28">
         <v>1.7956202904139199E-2</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="26">
         <v>1.7297199999999999E-2</v>
       </c>
       <c r="J15" s="5">
         <v>1.75224E-2</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="9">
+        <f t="shared" si="4"/>
+        <v>1.7408149340399998E-2</v>
+      </c>
+      <c r="L15" s="9">
         <f t="shared" si="1"/>
         <v>0.96329942874574614</v>
       </c>
+      <c r="M15" s="9">
+        <f t="shared" si="2"/>
+        <v>0.97584105579252511</v>
+      </c>
       <c r="N15" s="9">
-        <f>J15/H15</f>
-        <v>0.97584105579252511</v>
-      </c>
-      <c r="O15" s="9">
-        <f>K15/H15</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="6"/>
+        <f t="shared" si="3"/>
+        <v>0.96947831528385853</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1.38879</v>
+      </c>
+      <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>90</v>
       </c>
       <c r="B16" s="11">
-        <f>A16*$S$5</f>
+        <f t="shared" si="0"/>
         <v>36.267061954558436</v>
       </c>
       <c r="C16" s="12">
@@ -1118,45 +1134,45 @@
         <v>0.99154299999999995</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="2">
+      <c r="H16" s="27">
         <v>2.54716677488637E-2</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="22">
         <v>2.4680299999999999E-2</v>
       </c>
       <c r="J16" s="2">
         <v>2.4773900000000001E-2</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="2"/>
-      <c r="M16" s="11">
+        <f t="shared" si="4"/>
+        <v>2.4696861585199997E-2</v>
+      </c>
+      <c r="L16" s="11">
         <f t="shared" si="1"/>
         <v>0.96893145134169689</v>
       </c>
+      <c r="M16" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97260612238887156</v>
+      </c>
       <c r="N16" s="11">
-        <f>J16/H16</f>
-        <v>0.97260612238887156</v>
-      </c>
-      <c r="O16" s="11">
-        <f>K16/H16</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="4"/>
+        <f t="shared" si="3"/>
+        <v>0.9695816476838951</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="2">
+        <v>1.97027</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-    </row>
-    <row r="17" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>120</v>
       </c>
       <c r="B17" s="9">
-        <f>A17*$S$5</f>
+        <f t="shared" si="0"/>
         <v>48.356082606077912</v>
       </c>
       <c r="C17" s="10">
@@ -1169,44 +1185,44 @@
         <v>0.85870100000000005</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="5">
+      <c r="H17" s="28">
         <v>3.2417642839879697E-2</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="26">
         <v>3.15217E-2</v>
       </c>
       <c r="J17" s="5">
         <v>3.1542500000000001E-2</v>
       </c>
       <c r="K17" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="9">
+        <f t="shared" si="4"/>
+        <v>3.1496843537600003E-2</v>
+      </c>
+      <c r="L17" s="9">
         <f t="shared" si="1"/>
         <v>0.97236249272332897</v>
       </c>
+      <c r="M17" s="9">
+        <f t="shared" si="2"/>
+        <v>0.97300411864606307</v>
+      </c>
       <c r="N17" s="9">
-        <f>J17/H17</f>
-        <v>0.97300411864606307</v>
-      </c>
-      <c r="O17" s="9">
-        <f>K17/H17</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="6"/>
+        <f t="shared" si="3"/>
+        <v>0.9715957354818241</v>
+      </c>
+      <c r="P17" s="5">
+        <v>2.5127600000000001</v>
+      </c>
+      <c r="Q17" s="5"/>
       <c r="R17" s="5"/>
       <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>150</v>
       </c>
       <c r="B18" s="11">
-        <f>A18*$S$5</f>
+        <f t="shared" si="0"/>
         <v>60.445103257597395</v>
       </c>
       <c r="C18" s="12">
@@ -1220,45 +1236,45 @@
         <v>0.76804600000000001</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="2">
+      <c r="H18" s="27">
         <v>3.9055212834252402E-2</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="22">
         <v>3.80746E-2</v>
       </c>
       <c r="J18" s="2">
         <v>3.8125399999999997E-2</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="M18" s="11">
+        <f t="shared" si="4"/>
+        <v>3.7975434243599997E-2</v>
+      </c>
+      <c r="L18" s="11">
         <f t="shared" si="1"/>
         <v>0.97489162744000257</v>
       </c>
+      <c r="M18" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97619235009169025</v>
+      </c>
       <c r="N18" s="11">
-        <f>J18/H18</f>
-        <v>0.97619235009169025</v>
-      </c>
-      <c r="O18" s="11">
-        <f>K18/H18</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="4"/>
+        <f t="shared" si="3"/>
+        <v>0.97235251040021442</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="2">
+        <v>3.0296099999999999</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-    </row>
-    <row r="19" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>250</v>
       </c>
       <c r="B19" s="9">
-        <f>A19*$S$5</f>
+        <f t="shared" si="0"/>
         <v>100.74183876266233</v>
       </c>
       <c r="C19" s="10">
@@ -1271,44 +1287,44 @@
         <v>0.59492599999999995</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="5">
+      <c r="H19" s="28">
         <v>5.8983323870902299E-2</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="26">
         <v>5.7466000000000003E-2</v>
       </c>
       <c r="J19" s="5">
         <v>5.76763E-2</v>
       </c>
       <c r="K19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="9">
+        <f t="shared" si="4"/>
+        <v>5.7744756325199986E-2</v>
+      </c>
+      <c r="L19" s="9">
         <f t="shared" si="1"/>
         <v>0.9742753752870339</v>
       </c>
+      <c r="M19" s="9">
+        <f t="shared" si="2"/>
+        <v>0.97784078981776268</v>
+      </c>
       <c r="N19" s="9">
-        <f>J19/H19</f>
-        <v>0.97784078981776268</v>
-      </c>
-      <c r="O19" s="9">
-        <f>K19/H19</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="6"/>
+        <f t="shared" si="3"/>
+        <v>0.97900139455665158</v>
+      </c>
+      <c r="P19" s="5">
+        <v>4.60677</v>
+      </c>
+      <c r="Q19" s="5"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>500</v>
       </c>
       <c r="B20" s="11">
-        <f>A20*$S$5</f>
+        <f t="shared" si="0"/>
         <v>201.48367752532465</v>
       </c>
       <c r="C20" s="12">
@@ -1322,45 +1338,45 @@
         <v>0.42067599999999999</v>
       </c>
       <c r="G20" s="5"/>
-      <c r="H20" s="2">
+      <c r="H20" s="27">
         <v>0.103595084893309</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="22">
         <v>0.10137699999999999</v>
       </c>
       <c r="J20" s="2">
         <v>0.101622</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="11">
+        <f t="shared" si="4"/>
+        <v>0.10128474657560001</v>
+      </c>
+      <c r="L20" s="11">
         <f t="shared" si="1"/>
         <v>0.97858889834789575</v>
       </c>
+      <c r="M20" s="11">
+        <f t="shared" si="2"/>
+        <v>0.98095387541463919</v>
+      </c>
       <c r="N20" s="11">
-        <f>J20/H20</f>
-        <v>0.98095387541463919</v>
-      </c>
-      <c r="O20" s="11">
-        <f>K20/H20</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="4"/>
+        <f t="shared" si="3"/>
+        <v>0.97769837902938761</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="2">
+        <v>8.0803100000000008</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-    </row>
-    <row r="21" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>750</v>
       </c>
       <c r="B21" s="9">
-        <f>A21*$S$5</f>
+        <f t="shared" si="0"/>
         <v>302.22551628798698</v>
       </c>
       <c r="C21" s="10">
@@ -1373,44 +1389,44 @@
         <v>0.34348000000000001</v>
       </c>
       <c r="G21" s="5"/>
-      <c r="H21" s="5">
+      <c r="H21" s="28">
         <v>0.14519436153500101</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="26">
         <v>0.14219300000000001</v>
       </c>
       <c r="J21" s="5">
         <v>0.142043</v>
       </c>
       <c r="K21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="9">
+        <f t="shared" si="4"/>
+        <v>0.14184209068399997</v>
+      </c>
+      <c r="L21" s="9">
         <f t="shared" si="1"/>
         <v>0.97932866329470047</v>
       </c>
+      <c r="M21" s="9">
+        <f t="shared" si="2"/>
+        <v>0.97829556532578343</v>
+      </c>
       <c r="N21" s="9">
-        <f>J21/H21</f>
-        <v>0.97829556532578343</v>
-      </c>
-      <c r="O21" s="9">
-        <f>K21/H21</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="6"/>
+        <f t="shared" si="3"/>
+        <v>0.9769118386171427</v>
+      </c>
+      <c r="P21" s="5">
+        <v>11.315899999999999</v>
+      </c>
+      <c r="Q21" s="5"/>
       <c r="R21" s="5"/>
       <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1000</v>
       </c>
       <c r="B22" s="11">
-        <f>A22*$S$5</f>
+        <f t="shared" si="0"/>
         <v>402.9673550506493</v>
       </c>
       <c r="C22" s="12">
@@ -1424,77 +1440,80 @@
         <v>0.29746400000000001</v>
       </c>
       <c r="G22" s="5"/>
-      <c r="H22" s="2">
+      <c r="H22" s="27">
         <v>0.185920101577397</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="22">
         <v>0.18163399999999999</v>
       </c>
       <c r="J22" s="2">
         <v>0.181612</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="11">
+        <f t="shared" si="4"/>
+        <v>0.18159106812</v>
+      </c>
+      <c r="L22" s="11">
         <f t="shared" si="1"/>
         <v>0.97694654025555849</v>
       </c>
+      <c r="M22" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97682820985549224</v>
+      </c>
       <c r="N22" s="11">
-        <f>J22/H22</f>
-        <v>0.97682820985549224</v>
-      </c>
-      <c r="O22" s="11">
-        <f>K22/H22</f>
-        <v>0</v>
-      </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="4"/>
+        <f t="shared" si="3"/>
+        <v>0.97671562450392246</v>
+      </c>
+      <c r="O22" s="4"/>
+      <c r="P22" s="2">
+        <v>14.487</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
     </row>
-    <row r="24" spans="1:21" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="17" t="s">
+      <c r="H24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="H25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J25" s="17" t="s">
+      <c r="J25" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="14" t="s">
+      <c r="L25" s="14" t="s">
         <v>21</v>
       </c>
+      <c r="M25" s="14"/>
       <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="R25" s="8" t="s">
+      <c r="P25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-    </row>
-    <row r="26" spans="1:21" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+    </row>
+    <row r="26" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>1</v>
       </c>
@@ -1521,37 +1540,29 @@
       <c r="J26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="K26" s="7"/>
+      <c r="L26" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="L26" s="7" t="s">
+      <c r="M26" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="M26" s="15" t="s">
+      <c r="N26" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="N26" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="O26" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="P26" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="R26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="S26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>0.1</v>
       </c>
       <c r="B27" s="11">
-        <f>A27*$S$5</f>
+        <f t="shared" ref="B27:B39" si="5">A27*$Q$5</f>
         <v>4.0296735505064935E-2</v>
       </c>
       <c r="C27" s="12">
@@ -1565,44 +1576,43 @@
         <v>29.746282999999998</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="2">
+      <c r="H27" s="27">
         <v>3.52725672373683E-5</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I27" s="22">
         <v>2.2214699999999999E-5</v>
       </c>
       <c r="J27" s="2">
         <v>2.25088E-5</v>
       </c>
       <c r="K27" s="2">
-        <f>R27*$V$4*$Y$3*1E-24</f>
+        <f>P27*$T$4*$W$3*1E-24</f>
         <v>2.0764465399999998E-5</v>
       </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="11">
-        <f>I27/H27</f>
+      <c r="L27" s="29">
+        <f t="shared" ref="L27:L39" si="6">I27/H27</f>
         <v>0.62980105333714986</v>
       </c>
-      <c r="N27" s="11">
-        <f>J27/H27</f>
+      <c r="M27" s="29">
+        <f t="shared" ref="M27:M39" si="7">J27/H27</f>
         <v>0.63813897776495931</v>
       </c>
-      <c r="O27" s="11">
-        <f>K27/H27</f>
+      <c r="N27" s="29">
+        <f t="shared" ref="N27:N39" si="8">K27/H27</f>
         <v>0.58868596834090958</v>
       </c>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="2">
+      <c r="O27" s="4"/>
+      <c r="P27" s="2">
         <v>3.3329800000000001</v>
       </c>
-      <c r="S27" s="2"/>
-    </row>
-    <row r="28" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>0.5</v>
       </c>
       <c r="B28" s="9">
-        <f>A28*$S$5</f>
+        <f t="shared" si="5"/>
         <v>0.20148367752532464</v>
       </c>
       <c r="C28" s="10">
@@ -1615,43 +1625,42 @@
         <v>13.302942</v>
       </c>
       <c r="G28" s="5"/>
-      <c r="H28" s="5">
+      <c r="H28" s="28">
         <v>1.76088265923015E-4</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="26">
         <v>1.06229E-4</v>
       </c>
       <c r="J28" s="5">
         <v>1.00448E-4</v>
       </c>
       <c r="K28" s="5">
-        <f t="shared" ref="K28:K39" si="2">R28*$V$4*$Y$3*1E-24</f>
+        <f t="shared" ref="K28:K39" si="9">P28*$T$4*$W$3*1E-24</f>
         <v>1.1061240399999999E-4</v>
       </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="9">
-        <f t="shared" ref="M28:M39" si="3">I28/H28</f>
+      <c r="L28" s="29">
+        <f t="shared" si="6"/>
         <v>0.60327131647967303</v>
       </c>
-      <c r="N28" s="9">
-        <f t="shared" ref="N28:N39" si="4">J28/H28</f>
+      <c r="M28" s="29">
+        <f t="shared" si="7"/>
         <v>0.57044119023760176</v>
       </c>
-      <c r="O28" s="9">
-        <f>K28/H28</f>
+      <c r="N28" s="29">
+        <f t="shared" si="8"/>
         <v>0.62816453680314643</v>
       </c>
-      <c r="R28" s="5">
+      <c r="P28" s="5">
         <v>17.754799999999999</v>
       </c>
-      <c r="S28" s="5"/>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1.5</v>
       </c>
       <c r="B29" s="11">
-        <f>A29*$S$5</f>
+        <f t="shared" si="5"/>
         <v>0.60445103257597399</v>
       </c>
       <c r="C29" s="12">
@@ -1665,44 +1674,43 @@
         <v>7.6804569999999996</v>
       </c>
       <c r="G29" s="5"/>
-      <c r="H29" s="2">
+      <c r="H29" s="27">
         <v>5.2684723504348998E-4</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="22">
         <v>3.3353199999999999E-4</v>
       </c>
       <c r="J29" s="2">
         <v>3.2863E-4</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.3546182599999996E-4</v>
       </c>
-      <c r="L29" s="2"/>
+      <c r="L29" s="11">
+        <f t="shared" si="6"/>
+        <v>0.63307155815758953</v>
+      </c>
       <c r="M29" s="11">
-        <f t="shared" si="3"/>
-        <v>0.63307155815758953</v>
+        <f t="shared" si="7"/>
+        <v>0.62376715324864973</v>
       </c>
       <c r="N29" s="11">
-        <f t="shared" si="4"/>
-        <v>0.62376715324864973</v>
-      </c>
-      <c r="O29" s="11">
-        <f>K29/H29</f>
+        <f t="shared" si="8"/>
         <v>0.63673452888541471</v>
       </c>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="2">
+      <c r="O29" s="4"/>
+      <c r="P29" s="2">
         <v>53.846200000000003</v>
       </c>
-      <c r="S29" s="2"/>
-    </row>
-    <row r="30" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>15</v>
       </c>
       <c r="B30" s="9">
-        <f>A30*$S$5</f>
+        <f t="shared" si="5"/>
         <v>6.044510325759739</v>
       </c>
       <c r="C30" s="10">
@@ -1715,43 +1723,42 @@
         <v>2.4287740000000002</v>
       </c>
       <c r="G30" s="5"/>
-      <c r="H30" s="5">
+      <c r="H30" s="28">
         <v>5.02535867346246E-3</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="26">
         <v>3.22792E-3</v>
       </c>
       <c r="J30" s="5">
         <v>3.1989399999999999E-3</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.1236285499999998E-3</v>
       </c>
-      <c r="L30" s="5"/>
+      <c r="L30" s="9">
+        <f t="shared" si="6"/>
+        <v>0.64232629146368392</v>
+      </c>
       <c r="M30" s="9">
-        <f t="shared" si="3"/>
-        <v>0.64232629146368392</v>
+        <f t="shared" si="7"/>
+        <v>0.63655953890271044</v>
       </c>
       <c r="N30" s="9">
-        <f t="shared" si="4"/>
-        <v>0.63655953890271044</v>
-      </c>
-      <c r="O30" s="9">
-        <f>K30/H30</f>
+        <f t="shared" si="8"/>
         <v>0.62157325535688124</v>
       </c>
-      <c r="R30" s="5">
+      <c r="P30" s="5">
         <v>501.38499999999999</v>
       </c>
-      <c r="S30" s="5"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" s="11">
-        <f>A31*$S$5</f>
+        <f t="shared" si="5"/>
         <v>12.089020651519478</v>
       </c>
       <c r="C31" s="12">
@@ -1765,44 +1772,43 @@
         <v>1.7174020000000001</v>
       </c>
       <c r="G31" s="5"/>
-      <c r="H31" s="2">
+      <c r="H31" s="27">
         <v>9.6096776712520909E-3</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="25">
         <v>6.4084199999999997E-3</v>
       </c>
       <c r="J31" s="2">
         <v>6.4294499999999997E-3</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>6.2577857999999995E-3</v>
       </c>
-      <c r="L31" s="2"/>
+      <c r="L31" s="11">
+        <f t="shared" si="6"/>
+        <v>0.66687148302290722</v>
+      </c>
       <c r="M31" s="11">
-        <f t="shared" si="3"/>
-        <v>0.66687148302290722</v>
+        <f t="shared" si="7"/>
+        <v>0.66905990189807019</v>
       </c>
       <c r="N31" s="11">
-        <f t="shared" si="4"/>
-        <v>0.66905990189807019</v>
-      </c>
-      <c r="O31" s="11">
-        <f>K31/H31</f>
+        <f t="shared" si="8"/>
         <v>0.65119622260802035</v>
       </c>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="2">
+      <c r="O31" s="4"/>
+      <c r="P31" s="2">
         <v>1004.46</v>
       </c>
-      <c r="S31" s="2"/>
-    </row>
-    <row r="32" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>60</v>
       </c>
       <c r="B32" s="9">
-        <f>A32*$S$5</f>
+        <f t="shared" si="5"/>
         <v>24.178041303038956</v>
       </c>
       <c r="C32" s="10">
@@ -1815,44 +1821,43 @@
         <v>1.2143870000000001</v>
       </c>
       <c r="G32" s="5"/>
-      <c r="H32" s="5">
+      <c r="H32" s="28">
         <v>1.7956202904139199E-2</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="26">
         <v>1.27028E-2</v>
       </c>
       <c r="J32" s="5">
         <v>1.26584E-2</v>
       </c>
       <c r="K32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.2780408899999998E-2</v>
       </c>
-      <c r="L32" s="5"/>
+      <c r="L32" s="9">
+        <f t="shared" si="6"/>
+        <v>0.70743241585178329</v>
+      </c>
       <c r="M32" s="9">
-        <f t="shared" si="3"/>
-        <v>0.70743241585178329</v>
+        <f t="shared" si="7"/>
+        <v>0.70495973272177892</v>
       </c>
       <c r="N32" s="9">
-        <f t="shared" si="4"/>
-        <v>0.70495973272177892</v>
-      </c>
-      <c r="O32" s="9">
-        <f>K32/H32</f>
+        <f t="shared" si="8"/>
         <v>0.71175453787358933</v>
       </c>
-      <c r="R32" s="5">
+      <c r="P32" s="5">
         <v>2051.4299999999998</v>
       </c>
+      <c r="Q32" s="5"/>
       <c r="S32" s="5"/>
-      <c r="U32" s="5"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>90</v>
       </c>
       <c r="B33" s="11">
-        <f>A33*$S$5</f>
+        <f t="shared" si="5"/>
         <v>36.267061954558436</v>
       </c>
       <c r="C33" s="12">
@@ -1866,46 +1871,45 @@
         <v>0.99154299999999995</v>
       </c>
       <c r="G33" s="5"/>
-      <c r="H33" s="2">
+      <c r="H33" s="27">
         <v>2.54716677488637E-2</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I33" s="22">
         <v>1.8848799999999999E-2</v>
       </c>
       <c r="J33" s="2">
         <v>1.8641399999999999E-2</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>1.83316504E-2</v>
       </c>
-      <c r="L33" s="2"/>
+      <c r="L33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.73999080805538731</v>
+      </c>
       <c r="M33" s="11">
-        <f t="shared" si="3"/>
-        <v>0.73999080805538731</v>
+        <f t="shared" si="7"/>
+        <v>0.73184842797863514</v>
       </c>
       <c r="N33" s="11">
-        <f t="shared" si="4"/>
-        <v>0.73184842797863514</v>
-      </c>
-      <c r="O33" s="11">
-        <f>K33/H33</f>
+        <f t="shared" si="8"/>
         <v>0.71968787363040965</v>
       </c>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="2">
+      <c r="O33" s="4"/>
+      <c r="P33" s="2">
         <v>2942.48</v>
       </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
       <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-    </row>
-    <row r="34" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>120</v>
       </c>
       <c r="B34" s="9">
-        <f>A34*$S$5</f>
+        <f t="shared" si="5"/>
         <v>48.356082606077912</v>
       </c>
       <c r="C34" s="10">
@@ -1918,43 +1922,42 @@
         <v>0.85870100000000005</v>
       </c>
       <c r="G34" s="5"/>
-      <c r="H34" s="5">
+      <c r="H34" s="28">
         <v>3.2417642839879697E-2</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="26">
         <v>2.47298E-2</v>
       </c>
       <c r="J34" s="5">
         <v>2.4878500000000001E-2</v>
       </c>
       <c r="K34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>2.4631987099999999E-2</v>
       </c>
-      <c r="L34" s="5"/>
+      <c r="L34" s="9">
+        <f t="shared" si="6"/>
+        <v>0.76285003577057653</v>
+      </c>
       <c r="M34" s="9">
-        <f t="shared" si="3"/>
-        <v>0.76285003577057653</v>
+        <f t="shared" si="7"/>
+        <v>0.76743704417012226</v>
       </c>
       <c r="N34" s="9">
-        <f t="shared" si="4"/>
-        <v>0.76743704417012226</v>
-      </c>
-      <c r="O34" s="9">
-        <f>K34/H34</f>
+        <f t="shared" si="8"/>
         <v>0.75983276210625961</v>
       </c>
-      <c r="R34" s="5">
+      <c r="P34" s="5">
         <v>3953.77</v>
       </c>
-      <c r="S34" s="5"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>150</v>
       </c>
       <c r="B35" s="11">
-        <f>A35*$S$5</f>
+        <f t="shared" si="5"/>
         <v>60.445103257597395</v>
       </c>
       <c r="C35" s="12">
@@ -1968,44 +1971,43 @@
         <v>0.76804600000000001</v>
       </c>
       <c r="G35" s="5"/>
-      <c r="H35" s="2">
+      <c r="H35" s="27">
         <v>3.9055212834252402E-2</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="25">
         <v>3.0672700000000001E-2</v>
       </c>
       <c r="J35" s="2">
         <v>2.95511E-2</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>3.0206154999999998E-2</v>
       </c>
-      <c r="L35" s="2"/>
+      <c r="L35" s="11">
+        <f t="shared" si="6"/>
+        <v>0.78536763146504407</v>
+      </c>
       <c r="M35" s="11">
-        <f t="shared" si="3"/>
-        <v>0.78536763146504407</v>
+        <f t="shared" si="7"/>
+        <v>0.7566493140214805</v>
       </c>
       <c r="N35" s="11">
-        <f t="shared" si="4"/>
-        <v>0.7566493140214805</v>
-      </c>
-      <c r="O35" s="11">
-        <f>K35/H35</f>
+        <f t="shared" si="8"/>
         <v>0.77342185096245186</v>
       </c>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="2">
+      <c r="O35" s="4"/>
+      <c r="P35" s="2">
         <v>4848.5</v>
       </c>
-      <c r="S35" s="2"/>
-    </row>
-    <row r="36" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>250</v>
       </c>
       <c r="B36" s="9">
-        <f>A36*$S$5</f>
+        <f t="shared" si="5"/>
         <v>100.74183876266233</v>
       </c>
       <c r="C36" s="10">
@@ -2018,41 +2020,42 @@
         <v>0.59492599999999995</v>
       </c>
       <c r="G36" s="5"/>
-      <c r="H36" s="5">
+      <c r="H36" s="28">
         <v>5.8983323870902299E-2</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="26">
         <v>4.9196200000000002E-2</v>
       </c>
       <c r="J36" s="5">
         <v>4.8565799999999999E-2</v>
       </c>
       <c r="K36" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="5"/>
+        <f t="shared" si="9"/>
+        <v>4.8230853299999994E-2</v>
+      </c>
+      <c r="L36" s="9">
+        <f t="shared" si="6"/>
+        <v>0.834069644967389</v>
+      </c>
       <c r="M36" s="9">
-        <f t="shared" si="3"/>
-        <v>0.834069644967389</v>
+        <f t="shared" si="7"/>
+        <v>0.82338187834745813</v>
       </c>
       <c r="N36" s="9">
-        <f t="shared" si="4"/>
-        <v>0.82338187834745813</v>
-      </c>
-      <c r="O36" s="9">
-        <f>K36/H36</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="5"/>
-      <c r="S36" s="5"/>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0.81770321058141104</v>
+      </c>
+      <c r="P36" s="5">
+        <v>7741.71</v>
+      </c>
+      <c r="Q36" s="5"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>500</v>
       </c>
       <c r="B37" s="11">
-        <f>A37*$S$5</f>
+        <f t="shared" si="5"/>
         <v>201.48367752532465</v>
       </c>
       <c r="C37" s="12">
@@ -2066,42 +2069,43 @@
         <v>0.42067599999999999</v>
       </c>
       <c r="G37" s="5"/>
-      <c r="H37" s="2">
+      <c r="H37" s="27">
         <v>0.103595084893309</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="25">
         <v>9.2448600000000006E-2</v>
       </c>
       <c r="J37" s="2">
         <v>8.9643600000000004E-2</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="2"/>
+        <f t="shared" si="9"/>
+        <v>8.8566302999999999E-2</v>
+      </c>
+      <c r="L37" s="11">
+        <f t="shared" si="6"/>
+        <v>0.89240334225519879</v>
+      </c>
       <c r="M37" s="11">
-        <f t="shared" si="3"/>
-        <v>0.89240334225519879</v>
+        <f t="shared" si="7"/>
+        <v>0.86532676808289299</v>
       </c>
       <c r="N37" s="11">
-        <f t="shared" si="4"/>
-        <v>0.86532676808289299</v>
-      </c>
-      <c r="O37" s="11">
-        <f>K37/H37</f>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-    </row>
-    <row r="38" spans="1:21" s="4" customFormat="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="8"/>
+        <v>0.85492765502545887</v>
+      </c>
+      <c r="O37" s="4"/>
+      <c r="P37" s="2">
+        <v>14216.1</v>
+      </c>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>750</v>
       </c>
       <c r="B38" s="9">
-        <f>A38*$S$5</f>
+        <f t="shared" si="5"/>
         <v>302.22551628798698</v>
       </c>
       <c r="C38" s="10">
@@ -2114,41 +2118,42 @@
         <v>0.34348000000000001</v>
       </c>
       <c r="G38" s="5"/>
-      <c r="H38" s="5">
+      <c r="H38" s="28">
         <v>0.14519436153500101</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="26">
         <v>0.133441</v>
       </c>
       <c r="J38" s="5">
         <v>0.124949</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
+        <v>0.12434955399999999</v>
+      </c>
+      <c r="L38" s="29">
+        <f t="shared" si="6"/>
         <v>0.91905084046829388</v>
       </c>
-      <c r="N38" s="9">
-        <f t="shared" si="4"/>
+      <c r="M38" s="29">
+        <f t="shared" si="7"/>
         <v>0.86056372078801013</v>
       </c>
-      <c r="O38" s="9">
-        <f>K38/H38</f>
-        <v>0</v>
-      </c>
-      <c r="R38" s="5"/>
-      <c r="S38" s="5"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N38" s="29">
+        <f t="shared" si="8"/>
+        <v>0.85643514448750746</v>
+      </c>
+      <c r="P38" s="5">
+        <v>19959.8</v>
+      </c>
+      <c r="Q38" s="5"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1000</v>
       </c>
       <c r="B39" s="11">
-        <f>A39*$S$5</f>
+        <f t="shared" si="5"/>
         <v>402.9673550506493</v>
       </c>
       <c r="C39" s="12">
@@ -2162,726 +2167,1446 @@
         <v>0.29746400000000001</v>
       </c>
       <c r="G39" s="5"/>
-      <c r="H39" s="2">
+      <c r="H39" s="27">
         <v>0.185920101577397</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="22">
         <v>0.17522299999999999</v>
       </c>
       <c r="J39" s="2">
         <v>0.1593</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
+        <v>0.16219431200000001</v>
+      </c>
+      <c r="L39" s="29">
+        <f t="shared" si="6"/>
+        <v>0.94246398594536107</v>
+      </c>
+      <c r="M39" s="29">
+        <f t="shared" si="7"/>
+        <v>0.85681966957018219</v>
+      </c>
+      <c r="N39" s="29">
+        <f t="shared" si="8"/>
+        <v>0.87238717397365373</v>
+      </c>
+      <c r="O39" s="4"/>
+      <c r="P39" s="2">
+        <v>26034.400000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="I42" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="P42" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="8"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="L39" s="2"/>
-      <c r="M39" s="11">
-        <f t="shared" si="3"/>
-        <v>0.94246398594536107</v>
-      </c>
-      <c r="N39" s="11">
-        <f t="shared" si="4"/>
-        <v>0.85681966957018219</v>
-      </c>
-      <c r="O39" s="11">
-        <f>K39/H39</f>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O43" s="18"/>
+      <c r="P43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0.1</v>
+      </c>
+      <c r="B44" s="11">
+        <f t="shared" ref="B44:B56" si="10">A44*$Q$5</f>
+        <v>4.0296735505064935E-2</v>
+      </c>
+      <c r="C44" s="12">
+        <v>2.1099999999999999E-3</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="13">
+        <v>23.784832000000002</v>
+      </c>
+      <c r="F44" s="13">
+        <v>29.746282999999998</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44" s="2">
+        <v>3.52725672373683E-5</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1.7915200000000001E-5</v>
+      </c>
+      <c r="K44" s="30">
+        <f t="shared" ref="K44:K52" si="11">P44*$T$4*$W$3*1E-24</f>
+        <v>2.0412221199999998E-5</v>
+      </c>
+      <c r="L44" s="11" t="e">
+        <f>I44/H44</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M44" s="11">
+        <f>J44/H44</f>
+        <v>0.50790745905844814</v>
+      </c>
+      <c r="N44" s="11">
+        <f t="shared" ref="N44:N56" si="12">K44/H44</f>
+        <v>0.57869961839281658</v>
+      </c>
+      <c r="O44" s="4"/>
+      <c r="P44" s="30">
+        <v>3.27644</v>
+      </c>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B45" s="9">
+        <f t="shared" si="10"/>
+        <v>0.20148367752532464</v>
+      </c>
+      <c r="C45" s="10">
+        <v>1.055E-2</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="6">
+        <v>10.636900000000001</v>
+      </c>
+      <c r="F45" s="6">
+        <v>13.302942</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5">
+        <v>1.76088265923015E-4</v>
+      </c>
+      <c r="I45" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="J45" s="5">
+        <v>9.4329300000000005E-5</v>
+      </c>
+      <c r="K45" s="31">
+        <f t="shared" si="11"/>
+        <v>1.0768492699999999E-4</v>
+      </c>
+      <c r="L45" s="9" t="e">
+        <f t="shared" ref="L45:L56" si="13">I45/H45</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M45" s="9">
+        <f t="shared" ref="M45:M56" si="14">J45/H45</f>
+        <v>0.53569327578727111</v>
+      </c>
+      <c r="N45" s="9">
+        <f t="shared" si="12"/>
+        <v>0.61153948240412204</v>
+      </c>
+      <c r="O45" s="4"/>
+      <c r="P45" s="31">
+        <v>17.2849</v>
+      </c>
+      <c r="Q45" s="5"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1.5</v>
+      </c>
+      <c r="B46" s="11">
+        <f t="shared" si="10"/>
+        <v>0.60445103257597399</v>
+      </c>
+      <c r="C46" s="12">
+        <v>3.1649999999999998E-2</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="13">
+        <v>6.1412170000000001</v>
+      </c>
+      <c r="F46" s="13">
+        <v>7.6804569999999996</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="2">
+        <v>5.2684723504348998E-4</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J46" s="2">
+        <v>2.9638700000000001E-4</v>
+      </c>
+      <c r="K46" s="30">
+        <f t="shared" si="11"/>
+        <v>2.97874367E-4</v>
+      </c>
+      <c r="L46" s="11" t="e">
+        <f t="shared" si="13"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M46" s="11">
+        <f t="shared" si="14"/>
+        <v>0.56256724964217375</v>
+      </c>
+      <c r="N46" s="11">
+        <f t="shared" si="12"/>
+        <v>0.56539039627950438</v>
+      </c>
+      <c r="O46" s="4"/>
+      <c r="P46" s="30">
+        <v>47.812899999999999</v>
+      </c>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>15</v>
+      </c>
+      <c r="B47" s="9">
+        <f t="shared" si="10"/>
+        <v>6.044510325759739</v>
+      </c>
+      <c r="C47" s="10">
+        <v>0.31649699999999997</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="6">
+        <v>1.9420230000000001</v>
+      </c>
+      <c r="F47" s="6">
+        <v>2.4287740000000002</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5">
+        <v>5.02535867346246E-3</v>
+      </c>
+      <c r="I47" s="21">
+        <v>2.8804099999999999E-3</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="31">
+        <f t="shared" si="11"/>
+        <v>2.5144030799999998E-3</v>
+      </c>
+      <c r="L47" s="9">
+        <f t="shared" si="13"/>
+        <v>0.57317500842490199</v>
+      </c>
+      <c r="M47" s="9">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="4"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A41" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="17" t="s">
+      <c r="N47" s="9">
+        <f t="shared" si="12"/>
+        <v>0.50034300900309314</v>
+      </c>
+      <c r="O47" s="4"/>
+      <c r="P47" s="31">
+        <v>403.596</v>
+      </c>
+      <c r="Q47" s="5"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>30</v>
       </c>
-      <c r="J41" s="17" t="s">
+      <c r="B48" s="11">
+        <f t="shared" si="10"/>
+        <v>12.089020651519478</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0.63299399999999995</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="13">
+        <v>1.373218</v>
+      </c>
+      <c r="F48" s="13">
+        <v>1.7174020000000001</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="2">
+        <v>9.6096776712520909E-3</v>
+      </c>
+      <c r="I48" s="16">
+        <v>5.7066199999999999E-3</v>
+      </c>
+      <c r="J48" s="2"/>
+      <c r="K48" s="30">
+        <f t="shared" si="11"/>
+        <v>5.1434879999999999E-3</v>
+      </c>
+      <c r="L48" s="11">
+        <f t="shared" si="13"/>
+        <v>0.59384093777377001</v>
+      </c>
+      <c r="M48" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="11">
+        <f t="shared" si="12"/>
+        <v>0.53524042907152269</v>
+      </c>
+      <c r="O48" s="4"/>
+      <c r="P48" s="30">
+        <v>825.6</v>
+      </c>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>60</v>
+      </c>
+      <c r="B49" s="9">
+        <f t="shared" si="10"/>
+        <v>24.178041303038956</v>
+      </c>
+      <c r="C49" s="10">
+        <v>1.265987</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="6">
+        <v>0.97101199999999999</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1.2143870000000001</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5">
+        <v>1.7956202904139199E-2</v>
+      </c>
+      <c r="I49" s="17">
+        <v>1.13375E-2</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="K49" s="31">
+        <f t="shared" si="11"/>
+        <v>1.25591816E-2</v>
+      </c>
+      <c r="L49" s="9">
+        <f t="shared" si="13"/>
+        <v>0.6313974096041497</v>
+      </c>
+      <c r="M49" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="9">
+        <f t="shared" si="12"/>
+        <v>0.69943415470677839</v>
+      </c>
+      <c r="O49" s="4"/>
+      <c r="P49" s="31">
+        <v>2015.92</v>
+      </c>
+      <c r="Q49" s="5"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>90</v>
+      </c>
+      <c r="B50" s="11">
+        <f t="shared" si="10"/>
+        <v>36.267061954558436</v>
+      </c>
+      <c r="C50" s="12">
+        <v>1.898981</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="13">
+        <v>0.79282799999999998</v>
+      </c>
+      <c r="F50" s="13">
+        <v>0.99154299999999995</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50" s="2">
+        <v>2.54716677488637E-2</v>
+      </c>
+      <c r="I50" s="16">
+        <v>1.6732899999999998E-2</v>
+      </c>
+      <c r="J50" s="2"/>
+      <c r="K50" s="30">
+        <f t="shared" si="11"/>
+        <v>1.8564839299999997E-2</v>
+      </c>
+      <c r="L50" s="11">
+        <f t="shared" si="13"/>
+        <v>0.65692204236396967</v>
+      </c>
+      <c r="M50" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="11">
+        <f t="shared" si="12"/>
+        <v>0.72884270802520112</v>
+      </c>
+      <c r="O50" s="4"/>
+      <c r="P50" s="30">
+        <v>2979.91</v>
+      </c>
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>120</v>
+      </c>
+      <c r="B51" s="9">
+        <f t="shared" si="10"/>
+        <v>48.356082606077912</v>
+      </c>
+      <c r="C51" s="10">
+        <v>2.5319750000000001</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="6">
+        <v>0.68660900000000002</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0.85870100000000005</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5">
+        <v>3.2417642839879697E-2</v>
+      </c>
+      <c r="I51" s="17">
+        <v>2.1914300000000001E-2</v>
+      </c>
+      <c r="J51" s="5"/>
+      <c r="K51" s="31">
+        <f t="shared" si="11"/>
+        <v>2.4434994500000001E-2</v>
+      </c>
+      <c r="L51" s="9">
+        <f t="shared" si="13"/>
+        <v>0.6759991807004968</v>
+      </c>
+      <c r="M51" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="9">
+        <f t="shared" si="12"/>
+        <v>0.75375605255112621</v>
+      </c>
+      <c r="O51" s="4"/>
+      <c r="P51" s="31">
+        <v>3922.15</v>
+      </c>
+      <c r="Q51" s="5"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>150</v>
+      </c>
+      <c r="B52" s="11">
+        <f t="shared" si="10"/>
+        <v>60.445103257597395</v>
+      </c>
+      <c r="C52" s="12">
+        <v>3.1649690000000001</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="13">
+        <v>0.61412199999999995</v>
+      </c>
+      <c r="F52" s="13">
+        <v>0.76804600000000001</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="2">
+        <v>3.9055212834252402E-2</v>
+      </c>
+      <c r="I52" s="16">
+        <v>2.7247799999999999E-2</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="K52" s="30">
+        <f t="shared" si="11"/>
+        <v>3.0129525999999997E-2</v>
+      </c>
+      <c r="L52" s="11">
+        <f t="shared" si="13"/>
+        <v>0.69767383206021083</v>
+      </c>
+      <c r="M52" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="11">
+        <f t="shared" si="12"/>
+        <v>0.77145978253575531</v>
+      </c>
+      <c r="O52" s="4"/>
+      <c r="P52" s="30">
+        <v>4836.2</v>
+      </c>
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>250</v>
+      </c>
+      <c r="B53" s="9">
+        <f t="shared" si="10"/>
+        <v>100.74183876266233</v>
+      </c>
+      <c r="C53" s="10">
+        <v>5.2749480000000002</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="6">
+        <v>0.47569699999999998</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0.59492599999999995</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5">
+        <v>5.8983323870902299E-2</v>
+      </c>
+      <c r="I53" s="17">
+        <v>4.3543999999999999E-2</v>
+      </c>
+      <c r="J53" s="5"/>
+      <c r="K53" s="31">
+        <f>P53*$T$5*$W$3*1E-24+0.008</f>
+        <v>4.7207570499999997E-2</v>
+      </c>
+      <c r="L53" s="9">
+        <f t="shared" si="13"/>
+        <v>0.73824255980055342</v>
+      </c>
+      <c r="M53" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="9">
+        <f t="shared" si="12"/>
+        <v>0.80035453077083152</v>
+      </c>
+      <c r="O53" s="4"/>
+      <c r="P53" s="31">
+        <v>6293.35</v>
+      </c>
+      <c r="Q53" s="5"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>500</v>
+      </c>
+      <c r="B54" s="11">
+        <f t="shared" si="10"/>
+        <v>201.48367752532465</v>
+      </c>
+      <c r="C54" s="12">
+        <v>10.549896</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="13">
+        <v>0.336368</v>
+      </c>
+      <c r="F54" s="13">
+        <v>0.42067599999999999</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="2">
+        <v>0.103595084893309</v>
+      </c>
+      <c r="I54" s="16">
+        <v>8.01066E-2</v>
+      </c>
+      <c r="J54" s="2"/>
+      <c r="K54" s="30">
+        <f>P54*$T$4*$W$3*1E-24</f>
+        <v>8.9221698999999988E-2</v>
+      </c>
+      <c r="L54" s="11">
+        <f t="shared" si="13"/>
+        <v>0.77326641589705314</v>
+      </c>
+      <c r="M54" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="11">
+        <f t="shared" si="12"/>
+        <v>0.86125417139131699</v>
+      </c>
+      <c r="O54" s="4"/>
+      <c r="P54" s="30">
+        <v>14321.3</v>
+      </c>
+      <c r="Q54" s="2"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>750</v>
+      </c>
+      <c r="B55" s="9">
+        <f t="shared" si="10"/>
+        <v>302.22551628798698</v>
+      </c>
+      <c r="C55" s="10">
+        <v>15.824844000000001</v>
+      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="6">
+        <v>0.274644</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0.34348000000000001</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5">
+        <v>0.14519436153500101</v>
+      </c>
+      <c r="I55" s="17">
+        <v>0.114644</v>
+      </c>
+      <c r="J55" s="5"/>
+      <c r="K55" s="31">
+        <f>P55*$T$4*$W$3*1E-24</f>
+        <v>0.126647801</v>
+      </c>
+      <c r="L55" s="9">
+        <f t="shared" si="13"/>
+        <v>0.78958989032341698</v>
+      </c>
+      <c r="M55" s="9">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="9">
+        <f t="shared" si="12"/>
+        <v>0.87226390653930375</v>
+      </c>
+      <c r="O55" s="4"/>
+      <c r="P55" s="31">
+        <v>20328.7</v>
+      </c>
+      <c r="Q55" s="5"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1000</v>
+      </c>
+      <c r="B56" s="11">
+        <f t="shared" si="10"/>
+        <v>402.9673550506493</v>
+      </c>
+      <c r="C56" s="12">
+        <v>21.09958</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="13">
+        <v>0.23785000000000001</v>
+      </c>
+      <c r="F56" s="13">
+        <v>0.29746400000000001</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56" s="2">
+        <v>0.185920101577397</v>
+      </c>
+      <c r="I56" s="16"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="30">
+        <f>P56*$T$4*$W$3*1E-24</f>
+        <v>0.16153143999999997</v>
+      </c>
+      <c r="L56" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="11">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="11">
+        <f t="shared" si="12"/>
+        <v>0.86882181447580464</v>
+      </c>
+      <c r="O56" s="4"/>
+      <c r="P56" s="30">
+        <v>25928</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A59" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="I59" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J59" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="K59" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L59" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="14"/>
+      <c r="N59" s="14"/>
+      <c r="P59" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q59" s="8"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J60" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K60" s="7"/>
+      <c r="L60" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M60" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N60" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O60" s="18"/>
+      <c r="P60" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q60" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>0.1</v>
+      </c>
+      <c r="B61" s="11">
+        <f t="shared" ref="B61:B73" si="15">A61*$Q$5</f>
+        <v>4.0296735505064935E-2</v>
+      </c>
+      <c r="C61" s="12">
+        <v>2.1099999999999999E-3</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="13">
+        <v>23.784832000000002</v>
+      </c>
+      <c r="F61" s="13">
+        <v>29.746282999999998</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="2">
+        <v>3.52725672373683E-5</v>
+      </c>
+      <c r="I61" s="20">
+        <v>3.4288459937199994E-5</v>
+      </c>
+      <c r="J61" s="2">
+        <v>2.0764465399999998E-5</v>
+      </c>
+      <c r="K61" s="16">
+        <v>2.0531214199999999E-5</v>
+      </c>
+      <c r="L61" s="11">
+        <f>I61/H61</f>
+        <v>0.97209992418341107</v>
+      </c>
+      <c r="M61" s="11">
+        <f>J61/H61</f>
+        <v>0.58868596834090958</v>
+      </c>
+      <c r="N61" s="11">
+        <f t="shared" ref="N61:N73" si="16">K61/H61</f>
+        <v>0.58207314658539844</v>
+      </c>
+      <c r="O61" s="4"/>
+      <c r="P61" s="16"/>
+      <c r="Q61" s="2"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B62" s="9">
+        <f t="shared" si="15"/>
+        <v>0.20148367752532464</v>
+      </c>
+      <c r="C62" s="10">
+        <v>1.055E-2</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="6">
+        <v>10.636900000000001</v>
+      </c>
+      <c r="F62" s="6">
+        <v>13.302942</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5">
+        <v>1.76088265923015E-4</v>
+      </c>
+      <c r="I62" s="21">
+        <v>1.7111952961599997E-4</v>
+      </c>
+      <c r="J62" s="5">
+        <v>1.1061240399999999E-4</v>
+      </c>
+      <c r="K62" s="17">
+        <v>1.06846369E-4</v>
+      </c>
+      <c r="L62" s="9">
+        <f t="shared" ref="L62:L73" si="17">I62/H62</f>
+        <v>0.9717826949969095</v>
+      </c>
+      <c r="M62" s="9">
+        <f t="shared" ref="M62:M73" si="18">J62/H62</f>
+        <v>0.62816453680314643</v>
+      </c>
+      <c r="N62" s="9">
+        <f t="shared" si="16"/>
+        <v>0.60677733658137534</v>
+      </c>
+      <c r="O62" s="4"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="5"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>1.5</v>
+      </c>
+      <c r="B63" s="11">
+        <f t="shared" si="15"/>
+        <v>0.60445103257597399</v>
+      </c>
+      <c r="C63" s="12">
+        <v>3.1649999999999998E-2</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="13">
+        <v>6.1412170000000001</v>
+      </c>
+      <c r="F63" s="13">
+        <v>7.6804569999999996</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="2">
+        <v>5.2684723504348998E-4</v>
+      </c>
+      <c r="I63" s="20">
+        <v>5.1184438984000003E-4</v>
+      </c>
+      <c r="J63" s="2">
+        <v>3.3546182599999996E-4</v>
+      </c>
+      <c r="K63" s="16">
+        <v>2.9865685499999995E-4</v>
+      </c>
+      <c r="L63" s="11">
+        <f t="shared" si="17"/>
+        <v>0.97152334831509268</v>
+      </c>
+      <c r="M63" s="11">
+        <f t="shared" si="18"/>
+        <v>0.63673452888541471</v>
+      </c>
+      <c r="N63" s="11">
+        <f t="shared" si="16"/>
+        <v>0.56687562377611522</v>
+      </c>
+      <c r="O63" s="4"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="2"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
+        <v>15</v>
+      </c>
+      <c r="B64" s="9">
+        <f t="shared" si="15"/>
+        <v>6.044510325759739</v>
+      </c>
+      <c r="C64" s="10">
+        <v>0.31649699999999997</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="6">
+        <v>1.9420230000000001</v>
+      </c>
+      <c r="F64" s="6">
+        <v>2.4287740000000002</v>
+      </c>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5">
+        <v>5.02535867346246E-3</v>
+      </c>
+      <c r="I64" s="21">
+        <v>4.88413162972E-3</v>
+      </c>
+      <c r="J64" s="5">
+        <v>3.1236285499999998E-3</v>
+      </c>
+      <c r="K64" s="17">
+        <v>2.5054505700000001E-3</v>
+      </c>
+      <c r="L64" s="9">
+        <f t="shared" si="17"/>
+        <v>0.97189712159487418</v>
+      </c>
+      <c r="M64" s="9">
+        <f t="shared" si="18"/>
+        <v>0.62157325535688124</v>
+      </c>
+      <c r="N64" s="9">
+        <f t="shared" si="16"/>
+        <v>0.4985615421304348</v>
+      </c>
+      <c r="O64" s="4"/>
+      <c r="P64" s="17"/>
+      <c r="Q64" s="5"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>30</v>
       </c>
-      <c r="K41" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="L41" s="3"/>
-      <c r="M41" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="R41" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="S41" s="8"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M42" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="N42" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="O42" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="P42" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q42" s="16"/>
-      <c r="R42" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="S42" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>0.1</v>
-      </c>
-      <c r="B43" s="11">
-        <f>A43*$S$5</f>
-        <v>4.0296735505064935E-2</v>
-      </c>
-      <c r="C43" s="12">
-        <v>2.1099999999999999E-3</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="13">
-        <v>23.784832000000002</v>
-      </c>
-      <c r="F43" s="13">
-        <v>29.746282999999998</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="2">
-        <v>3.52725672373683E-5</v>
-      </c>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2">
-        <f>R43*$V$4*$Y$3*1E-24</f>
-        <v>2.0531214199999999E-5</v>
-      </c>
-      <c r="L43" s="2"/>
-      <c r="M43" s="11">
-        <f>I43/H43</f>
-        <v>0</v>
-      </c>
-      <c r="N43" s="11">
-        <f>J43/H43</f>
-        <v>0</v>
-      </c>
-      <c r="O43" s="11">
-        <f>K43/H43</f>
-        <v>0.58207314658539844</v>
-      </c>
-      <c r="P43" s="22"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="2">
-        <v>3.2955399999999999</v>
-      </c>
-      <c r="S43" s="2"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B44" s="9">
-        <f>A44*$S$5</f>
-        <v>0.20148367752532464</v>
-      </c>
-      <c r="C44" s="10">
-        <v>1.055E-2</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="6">
-        <v>10.636900000000001</v>
-      </c>
-      <c r="F44" s="6">
-        <v>13.302942</v>
-      </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5">
-        <v>1.76088265923015E-4</v>
-      </c>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5">
-        <f t="shared" ref="K44:K55" si="5">R44*$V$4*$Y$3*1E-24</f>
-        <v>1.06846369E-4</v>
-      </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="9">
-        <f t="shared" ref="M44:M55" si="6">I44/H44</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="9">
-        <f t="shared" ref="N44:N55" si="7">J44/H44</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="9">
-        <f>K44/H44</f>
-        <v>0.60677733658137534</v>
-      </c>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="5">
-        <v>17.150300000000001</v>
-      </c>
-      <c r="S44" s="5"/>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>1.5</v>
-      </c>
-      <c r="B45" s="11">
-        <f>A45*$S$5</f>
-        <v>0.60445103257597399</v>
-      </c>
-      <c r="C45" s="12">
-        <v>3.1649999999999998E-2</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="13">
-        <v>6.1412170000000001</v>
-      </c>
-      <c r="F45" s="13">
-        <v>7.6804569999999996</v>
-      </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="2">
-        <v>5.2684723504348998E-4</v>
-      </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2">
-        <f t="shared" si="5"/>
-        <v>2.9865685499999995E-4</v>
-      </c>
-      <c r="L45" s="2"/>
-      <c r="M45" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N45" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O45" s="11">
-        <f>K45/H45</f>
-        <v>0.56687562377611522</v>
-      </c>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="2">
-        <v>47.938499999999998</v>
-      </c>
-      <c r="S45" s="2"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>15</v>
-      </c>
-      <c r="B46" s="9">
-        <f>A46*$S$5</f>
-        <v>6.044510325759739</v>
-      </c>
-      <c r="C46" s="10">
-        <v>0.31649699999999997</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="6">
-        <v>1.9420230000000001</v>
-      </c>
-      <c r="F46" s="6">
-        <v>2.4287740000000002</v>
-      </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5">
-        <v>5.02535867346246E-3</v>
-      </c>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5">
-        <f t="shared" si="5"/>
-        <v>2.5054505700000001E-3</v>
-      </c>
-      <c r="L46" s="5"/>
-      <c r="M46" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N46" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O46" s="9">
-        <f>K46/H46</f>
-        <v>0.4985615421304348</v>
-      </c>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="5">
-        <v>402.15899999999999</v>
-      </c>
-      <c r="S46" s="5"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>30</v>
-      </c>
-      <c r="B47" s="11">
-        <f>A47*$S$5</f>
+      <c r="B65" s="11">
+        <f t="shared" si="15"/>
         <v>12.089020651519478</v>
       </c>
-      <c r="C47" s="12">
+      <c r="C65" s="12">
         <v>0.63299399999999995</v>
       </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="13">
+      <c r="D65" s="4"/>
+      <c r="E65" s="13">
         <v>1.373218</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F65" s="13">
         <v>1.7174020000000001</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="2">
+      <c r="G65" s="5"/>
+      <c r="H65" s="2">
         <v>9.6096776712520909E-3</v>
       </c>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2">
-        <f t="shared" si="5"/>
+      <c r="I65" s="16">
+        <v>9.338383665239999E-3</v>
+      </c>
+      <c r="J65" s="2">
+        <v>6.2577857999999995E-3</v>
+      </c>
+      <c r="K65" s="16">
         <v>5.1258882499999993E-3</v>
       </c>
-      <c r="L47" s="2"/>
-      <c r="M47" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N47" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O47" s="11">
-        <f>K47/H47</f>
+      <c r="L65" s="11">
+        <f t="shared" si="17"/>
+        <v>0.97176866745242829</v>
+      </c>
+      <c r="M65" s="11">
+        <f t="shared" si="18"/>
+        <v>0.65119622260802035</v>
+      </c>
+      <c r="N65" s="11">
+        <f t="shared" si="16"/>
         <v>0.5334089680587718</v>
       </c>
-      <c r="P47" s="22"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="2">
-        <v>822.77499999999998</v>
-      </c>
-      <c r="S47" s="2"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
+      <c r="O65" s="4"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="2"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
         <v>60</v>
       </c>
-      <c r="B48" s="9">
-        <f>A48*$S$5</f>
+      <c r="B66" s="9">
+        <f t="shared" si="15"/>
         <v>24.178041303038956</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C66" s="10">
         <v>1.265987</v>
       </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="6">
+      <c r="D66" s="4"/>
+      <c r="E66" s="6">
         <v>0.97101199999999999</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F66" s="6">
         <v>1.2143870000000001</v>
       </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5">
+      <c r="G66" s="5"/>
+      <c r="H66" s="5">
         <v>1.7956202904139199E-2</v>
       </c>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L48" s="5"/>
-      <c r="M48" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N48" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O48" s="9">
-        <f>K48/H48</f>
-        <v>0</v>
-      </c>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49">
+      <c r="I66" s="17">
+        <v>1.7408149340399998E-2</v>
+      </c>
+      <c r="J66" s="5">
+        <v>1.2780408899999998E-2</v>
+      </c>
+      <c r="K66" s="17">
+        <v>1.25560043E-2</v>
+      </c>
+      <c r="L66" s="9">
+        <f t="shared" si="17"/>
+        <v>0.96947831528385853</v>
+      </c>
+      <c r="M66" s="9">
+        <f t="shared" si="18"/>
+        <v>0.71175453787358933</v>
+      </c>
+      <c r="N66" s="9">
+        <f t="shared" si="16"/>
+        <v>0.69925720749711706</v>
+      </c>
+      <c r="O66" s="4"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="5"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>90</v>
       </c>
-      <c r="B49" s="11">
-        <f>A49*$S$5</f>
+      <c r="B67" s="11">
+        <f t="shared" si="15"/>
         <v>36.267061954558436</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C67" s="12">
         <v>1.898981</v>
       </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="13">
+      <c r="D67" s="4"/>
+      <c r="E67" s="13">
         <v>0.79282799999999998</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F67" s="13">
         <v>0.99154299999999995</v>
       </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="2">
+      <c r="G67" s="5"/>
+      <c r="H67" s="2">
         <v>2.54716677488637E-2</v>
       </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L49" s="2"/>
-      <c r="M49" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N49" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O49" s="11">
-        <f>K49/H49</f>
-        <v>0</v>
-      </c>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
+      <c r="I67" s="16">
+        <v>2.4696861585199997E-2</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1.83316504E-2</v>
+      </c>
+      <c r="K67" s="16">
+        <v>1.8560602900000001E-2</v>
+      </c>
+      <c r="L67" s="11">
+        <f t="shared" si="17"/>
+        <v>0.9695816476838951</v>
+      </c>
+      <c r="M67" s="11">
+        <f t="shared" si="18"/>
+        <v>0.71968787363040965</v>
+      </c>
+      <c r="N67" s="11">
+        <f t="shared" si="16"/>
+        <v>0.72867638990101047</v>
+      </c>
+      <c r="O67" s="4"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="2"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
         <v>120</v>
       </c>
-      <c r="B50" s="9">
-        <f>A50*$S$5</f>
+      <c r="B68" s="9">
+        <f t="shared" si="15"/>
         <v>48.356082606077912</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C68" s="10">
         <v>2.5319750000000001</v>
       </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="6">
+      <c r="D68" s="4"/>
+      <c r="E68" s="6">
         <v>0.68660900000000002</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F68" s="6">
         <v>0.85870100000000005</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5">
+      <c r="G68" s="5"/>
+      <c r="H68" s="5">
         <v>3.2417642839879697E-2</v>
       </c>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L50" s="5"/>
-      <c r="M50" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N50" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O50" s="9">
-        <f>K50/H50</f>
-        <v>0</v>
-      </c>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="5"/>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51">
+      <c r="I68" s="17">
+        <v>3.1496843537600003E-2</v>
+      </c>
+      <c r="J68" s="5">
+        <v>2.4631987099999999E-2</v>
+      </c>
+      <c r="K68" s="17">
+        <v>2.4498665099999997E-2</v>
+      </c>
+      <c r="L68" s="9">
+        <f t="shared" si="17"/>
+        <v>0.9715957354818241</v>
+      </c>
+      <c r="M68" s="9">
+        <f t="shared" si="18"/>
+        <v>0.75983276210625961</v>
+      </c>
+      <c r="N68" s="9">
+        <f t="shared" si="16"/>
+        <v>0.75572012502593522</v>
+      </c>
+      <c r="O68" s="4"/>
+      <c r="P68" s="17"/>
+      <c r="Q68" s="5"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>150</v>
       </c>
-      <c r="B51" s="11">
-        <f>A51*$S$5</f>
+      <c r="B69" s="11">
+        <f t="shared" si="15"/>
         <v>60.445103257597395</v>
       </c>
-      <c r="C51" s="12">
+      <c r="C69" s="12">
         <v>3.1649690000000001</v>
       </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="13">
+      <c r="D69" s="4"/>
+      <c r="E69" s="13">
         <v>0.61412199999999995</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F69" s="13">
         <v>0.76804600000000001</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="2">
+      <c r="G69" s="5"/>
+      <c r="H69" s="2">
         <v>3.9055212834252402E-2</v>
       </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L51" s="2"/>
-      <c r="M51" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N51" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O51" s="11">
-        <f>K51/H51</f>
-        <v>0</v>
-      </c>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
+      <c r="I69" s="16">
+        <v>3.7975434243599997E-2</v>
+      </c>
+      <c r="J69" s="2">
+        <v>3.0206154999999998E-2</v>
+      </c>
+      <c r="K69" s="16">
+        <v>3.0258923099999998E-2</v>
+      </c>
+      <c r="L69" s="11">
+        <f t="shared" si="17"/>
+        <v>0.97235251040021442</v>
+      </c>
+      <c r="M69" s="11">
+        <f t="shared" si="18"/>
+        <v>0.77342185096245186</v>
+      </c>
+      <c r="N69" s="11">
+        <f t="shared" si="16"/>
+        <v>0.77477296637498194</v>
+      </c>
+      <c r="O69" s="4"/>
+      <c r="P69" s="16"/>
+      <c r="Q69" s="2"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
         <v>250</v>
       </c>
-      <c r="B52" s="9">
-        <f>A52*$S$5</f>
+      <c r="B70" s="9">
+        <f t="shared" si="15"/>
         <v>100.74183876266233</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C70" s="10">
         <v>5.2749480000000002</v>
       </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="6">
+      <c r="D70" s="4"/>
+      <c r="E70" s="6">
         <v>0.47569699999999998</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F70" s="6">
         <v>0.59492599999999995</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5">
+      <c r="G70" s="5"/>
+      <c r="H70" s="5">
         <v>5.8983323870902299E-2</v>
       </c>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L52" s="5"/>
-      <c r="M52" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N52" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O52" s="9">
-        <f>K52/H52</f>
-        <v>0</v>
-      </c>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A53">
+      <c r="I70" s="17">
+        <v>5.7744756325199986E-2</v>
+      </c>
+      <c r="J70" s="5">
+        <v>4.8230853299999994E-2</v>
+      </c>
+      <c r="K70" s="17">
+        <v>4.7235667799999992E-2</v>
+      </c>
+      <c r="L70" s="9">
+        <f t="shared" si="17"/>
+        <v>0.97900139455665158</v>
+      </c>
+      <c r="M70" s="9">
+        <f t="shared" si="18"/>
+        <v>0.81770321058141104</v>
+      </c>
+      <c r="N70" s="9">
+        <f t="shared" si="16"/>
+        <v>0.80083089083594916</v>
+      </c>
+      <c r="O70" s="4"/>
+      <c r="P70" s="17"/>
+      <c r="Q70" s="5"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>500</v>
       </c>
-      <c r="B53" s="11">
-        <f>A53*$S$5</f>
+      <c r="B71" s="11">
+        <f t="shared" si="15"/>
         <v>201.48367752532465</v>
       </c>
-      <c r="C53" s="12">
+      <c r="C71" s="12">
         <v>10.549896</v>
       </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="13">
+      <c r="D71" s="4"/>
+      <c r="E71" s="13">
         <v>0.336368</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F71" s="13">
         <v>0.42067599999999999</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="2">
+      <c r="G71" s="5"/>
+      <c r="H71" s="2">
         <v>0.103595084893309</v>
       </c>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L53" s="2"/>
-      <c r="M53" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N53" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O53" s="11">
-        <f>K53/H53</f>
-        <v>0</v>
-      </c>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
+      <c r="I71" s="16">
+        <v>0.10128474657560001</v>
+      </c>
+      <c r="J71" s="2">
+        <v>8.8566302999999999E-2</v>
+      </c>
+      <c r="K71" s="16">
+        <v>8.9152545999999999E-2</v>
+      </c>
+      <c r="L71" s="11">
+        <f t="shared" si="17"/>
+        <v>0.97769837902938761</v>
+      </c>
+      <c r="M71" s="11">
+        <f t="shared" si="18"/>
+        <v>0.85492765502545887</v>
+      </c>
+      <c r="N71" s="11">
+        <f t="shared" si="16"/>
+        <v>0.86058663972153548</v>
+      </c>
+      <c r="O71" s="4"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
         <v>750</v>
       </c>
-      <c r="B54" s="9">
-        <f>A54*$S$5</f>
+      <c r="B72" s="9">
+        <f t="shared" si="15"/>
         <v>302.22551628798698</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C72" s="10">
         <v>15.824844000000001</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="6">
+      <c r="D72" s="4"/>
+      <c r="E72" s="6">
         <v>0.274644</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F72" s="6">
         <v>0.34348000000000001</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5">
+      <c r="G72" s="5"/>
+      <c r="H72" s="5">
         <v>0.14519436153500101</v>
       </c>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L54" s="5"/>
-      <c r="M54" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N54" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O54" s="9">
-        <f>K54/H54</f>
-        <v>0</v>
-      </c>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="5"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55">
+      <c r="I72" s="17">
+        <v>0.14184209068399997</v>
+      </c>
+      <c r="J72" s="5">
+        <v>0.12434955399999999</v>
+      </c>
+      <c r="K72" s="17">
+        <v>0.12664842399999998</v>
+      </c>
+      <c r="L72" s="9">
+        <f t="shared" si="17"/>
+        <v>0.9769118386171427</v>
+      </c>
+      <c r="M72" s="9">
+        <f t="shared" si="18"/>
+        <v>0.85643514448750746</v>
+      </c>
+      <c r="N72" s="9">
+        <f t="shared" si="16"/>
+        <v>0.87226819733953453</v>
+      </c>
+      <c r="O72" s="4"/>
+      <c r="P72" s="17"/>
+      <c r="Q72" s="5"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>1000</v>
       </c>
-      <c r="B55" s="11">
-        <f>A55*$S$5</f>
+      <c r="B73" s="11">
+        <f t="shared" si="15"/>
         <v>402.9673550506493</v>
       </c>
-      <c r="C55" s="12">
+      <c r="C73" s="12">
         <v>21.09958</v>
       </c>
-      <c r="D55" s="4"/>
-      <c r="E55" s="13">
+      <c r="D73" s="4"/>
+      <c r="E73" s="13">
         <v>0.23785000000000001</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F73" s="13">
         <v>0.29746400000000001</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="2">
+      <c r="G73" s="5"/>
+      <c r="H73" s="2">
         <v>0.185920101577397</v>
       </c>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L55" s="2"/>
-      <c r="M55" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="N55" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="O55" s="11">
-        <f>K55/H55</f>
-        <v>0</v>
-      </c>
-      <c r="P55" s="22"/>
-      <c r="Q55" s="4"/>
+      <c r="I73" s="16">
+        <v>0.18159106812</v>
+      </c>
+      <c r="J73" s="2">
+        <v>0.16219431200000001</v>
+      </c>
+      <c r="K73" s="16">
+        <v>0.16194324299999999</v>
+      </c>
+      <c r="L73" s="11">
+        <f t="shared" si="17"/>
+        <v>0.97671562450392246</v>
+      </c>
+      <c r="M73" s="11">
+        <f t="shared" si="18"/>
+        <v>0.87238717397365373</v>
+      </c>
+      <c r="N73" s="11">
+        <f t="shared" si="16"/>
+        <v>0.87103676055482548</v>
+      </c>
+      <c r="O73" s="4"/>
+      <c r="P73" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="K53" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/MCNP/wedge_data_2025-12-31.xlsx
+++ b/MCNP/wedge_data_2025-12-31.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP\emma-openmc\MCNP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FB8640-83BF-45A8-9CDD-E31A01C958C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5854B0-AF63-4BB8-8857-9D67A8A7182C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28824" yWindow="2376" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58FC2A7-2007-48F8-8A3D-08B47124466B}">
   <dimension ref="A1:W73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2315,7 +2315,7 @@
         <v>42</v>
       </c>
       <c r="J44" s="2">
-        <v>1.7915200000000001E-5</v>
+        <v>2.0225799999999999E-5</v>
       </c>
       <c r="K44" s="30">
         <f t="shared" ref="K44:K52" si="11">P44*$T$4*$W$3*1E-24</f>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="M44" s="11">
         <f>J44/H44</f>
-        <v>0.50790745905844814</v>
+        <v>0.57341445730018981</v>
       </c>
       <c r="N44" s="11">
         <f t="shared" ref="N44:N56" si="12">K44/H44</f>
@@ -2365,7 +2365,7 @@
         <v>43</v>
       </c>
       <c r="J45" s="5">
-        <v>9.4329300000000005E-5</v>
+        <v>1.07538E-4</v>
       </c>
       <c r="K45" s="31">
         <f t="shared" si="11"/>
@@ -2377,7 +2377,7 @@
       </c>
       <c r="M45" s="9">
         <f t="shared" ref="M45:M56" si="14">J45/H45</f>
-        <v>0.53569327578727111</v>
+        <v>0.610705088361851</v>
       </c>
       <c r="N45" s="9">
         <f t="shared" si="12"/>
@@ -2464,7 +2464,9 @@
       <c r="I47" s="21">
         <v>2.8804099999999999E-3</v>
       </c>
-      <c r="J47" s="5"/>
+      <c r="J47" s="5">
+        <v>3.2061199999999998E-3</v>
+      </c>
       <c r="K47" s="31">
         <f t="shared" si="11"/>
         <v>2.5144030799999998E-3</v>
@@ -2475,7 +2477,7 @@
       </c>
       <c r="M47" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.63798829264279977</v>
       </c>
       <c r="N47" s="9">
         <f t="shared" si="12"/>
@@ -2512,7 +2514,9 @@
       <c r="I48" s="16">
         <v>5.7066199999999999E-3</v>
       </c>
-      <c r="J48" s="2"/>
+      <c r="J48" s="2">
+        <v>6.3816400000000001E-3</v>
+      </c>
       <c r="K48" s="30">
         <f t="shared" si="11"/>
         <v>5.1434879999999999E-3</v>
@@ -2523,7 +2527,7 @@
       </c>
       <c r="M48" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.66408470901069316</v>
       </c>
       <c r="N48" s="11">
         <f t="shared" si="12"/>
@@ -2560,7 +2564,9 @@
       <c r="I49" s="17">
         <v>1.13375E-2</v>
       </c>
-      <c r="J49" s="5"/>
+      <c r="J49" s="5">
+        <v>1.26023E-2</v>
+      </c>
       <c r="K49" s="31">
         <f t="shared" si="11"/>
         <v>1.25591816E-2</v>
@@ -2571,7 +2577,7 @@
       </c>
       <c r="M49" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.70183546417238152</v>
       </c>
       <c r="N49" s="9">
         <f t="shared" si="12"/>
@@ -2608,7 +2614,9 @@
       <c r="I50" s="16">
         <v>1.6732899999999998E-2</v>
       </c>
-      <c r="J50" s="2"/>
+      <c r="J50" s="2">
+        <v>1.8516899999999999E-2</v>
+      </c>
       <c r="K50" s="30">
         <f t="shared" si="11"/>
         <v>1.8564839299999997E-2</v>
@@ -2619,7 +2627,7 @@
       </c>
       <c r="M50" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.72696064437422026</v>
       </c>
       <c r="N50" s="11">
         <f t="shared" si="12"/>
@@ -2656,7 +2664,9 @@
       <c r="I51" s="17">
         <v>2.1914300000000001E-2</v>
       </c>
-      <c r="J51" s="5"/>
+      <c r="J51" s="5">
+        <v>2.44475E-2</v>
+      </c>
       <c r="K51" s="31">
         <f t="shared" si="11"/>
         <v>2.4434994500000001E-2</v>
@@ -2667,7 +2677,7 @@
       </c>
       <c r="M51" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.75414181471346997</v>
       </c>
       <c r="N51" s="9">
         <f t="shared" si="12"/>
@@ -2704,7 +2714,9 @@
       <c r="I52" s="16">
         <v>2.7247799999999999E-2</v>
       </c>
-      <c r="J52" s="2"/>
+      <c r="J52" s="2">
+        <v>3.0182199999999999E-2</v>
+      </c>
       <c r="K52" s="30">
         <f t="shared" si="11"/>
         <v>3.0129525999999997E-2</v>
@@ -2715,7 +2727,7 @@
       </c>
       <c r="M52" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.77280848853880657</v>
       </c>
       <c r="N52" s="11">
         <f t="shared" si="12"/>

--- a/MCNP/wedge_data_2025-12-31.xlsx
+++ b/MCNP/wedge_data_2025-12-31.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP\emma-openmc\MCNP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5854B0-AF63-4BB8-8857-9D67A8A7182C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78376352-570C-4FAC-9F27-6FF993714211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
   <si>
     <t>BISO vol%</t>
   </si>
@@ -174,9 +174,6 @@
   </si>
   <si>
     <t>Homog.</t>
-  </si>
-  <si>
-    <t>MCNP DATA COLLATED</t>
   </si>
 </sst>
 </file>
@@ -332,9 +329,9 @@
     <xf numFmtId="11" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58FC2A7-2007-48F8-8A3D-08B47124466B}">
-  <dimension ref="A1:W73"/>
+  <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J49" sqref="J49"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,15 +1586,15 @@
         <f>P27*$T$4*$W$3*1E-24</f>
         <v>2.0764465399999998E-5</v>
       </c>
-      <c r="L27" s="29">
+      <c r="L27" s="31">
         <f t="shared" ref="L27:L39" si="6">I27/H27</f>
         <v>0.62980105333714986</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="31">
         <f t="shared" ref="M27:M39" si="7">J27/H27</f>
         <v>0.63813897776495931</v>
       </c>
-      <c r="N27" s="29">
+      <c r="N27" s="31">
         <f t="shared" ref="N27:N39" si="8">K27/H27</f>
         <v>0.58868596834090958</v>
       </c>
@@ -1638,15 +1635,15 @@
         <f t="shared" ref="K28:K39" si="9">P28*$T$4*$W$3*1E-24</f>
         <v>1.1061240399999999E-4</v>
       </c>
-      <c r="L28" s="29">
+      <c r="L28" s="9">
         <f t="shared" si="6"/>
         <v>0.60327131647967303</v>
       </c>
-      <c r="M28" s="29">
+      <c r="M28" s="9">
         <f t="shared" si="7"/>
         <v>0.57044119023760176</v>
       </c>
-      <c r="N28" s="29">
+      <c r="N28" s="9">
         <f t="shared" si="8"/>
         <v>0.62816453680314643</v>
       </c>
@@ -2131,15 +2128,15 @@
         <f t="shared" si="9"/>
         <v>0.12434955399999999</v>
       </c>
-      <c r="L38" s="29">
+      <c r="L38" s="9">
         <f t="shared" si="6"/>
         <v>0.91905084046829388</v>
       </c>
-      <c r="M38" s="29">
+      <c r="M38" s="9">
         <f t="shared" si="7"/>
         <v>0.86056372078801013</v>
       </c>
-      <c r="N38" s="29">
+      <c r="N38" s="9">
         <f t="shared" si="8"/>
         <v>0.85643514448750746</v>
       </c>
@@ -2180,15 +2177,15 @@
         <f t="shared" si="9"/>
         <v>0.16219431200000001</v>
       </c>
-      <c r="L39" s="29">
+      <c r="L39" s="31">
         <f t="shared" si="6"/>
         <v>0.94246398594536107</v>
       </c>
-      <c r="M39" s="29">
+      <c r="M39" s="31">
         <f t="shared" si="7"/>
         <v>0.85681966957018219</v>
       </c>
-      <c r="N39" s="29">
+      <c r="N39" s="31">
         <f t="shared" si="8"/>
         <v>0.87238717397365373</v>
       </c>
@@ -2315,9 +2312,9 @@
         <v>42</v>
       </c>
       <c r="J44" s="2">
-        <v>2.0225799999999999E-5</v>
-      </c>
-      <c r="K44" s="30">
+        <v>2.1465299999999999E-5</v>
+      </c>
+      <c r="K44" s="29">
         <f t="shared" ref="K44:K52" si="11">P44*$T$4*$W$3*1E-24</f>
         <v>2.0412221199999998E-5</v>
       </c>
@@ -2327,14 +2324,14 @@
       </c>
       <c r="M44" s="11">
         <f>J44/H44</f>
-        <v>0.57341445730018981</v>
+        <v>0.60855508065370789</v>
       </c>
       <c r="N44" s="11">
         <f t="shared" ref="N44:N56" si="12">K44/H44</f>
         <v>0.57869961839281658</v>
       </c>
       <c r="O44" s="4"/>
-      <c r="P44" s="30">
+      <c r="P44" s="29">
         <v>3.27644</v>
       </c>
       <c r="Q44" s="2"/>
@@ -2367,7 +2364,7 @@
       <c r="J45" s="5">
         <v>1.07538E-4</v>
       </c>
-      <c r="K45" s="31">
+      <c r="K45" s="30">
         <f t="shared" si="11"/>
         <v>1.0768492699999999E-4</v>
       </c>
@@ -2384,7 +2381,7 @@
         <v>0.61153948240412204</v>
       </c>
       <c r="O45" s="4"/>
-      <c r="P45" s="31">
+      <c r="P45" s="30">
         <v>17.2849</v>
       </c>
       <c r="Q45" s="5"/>
@@ -2417,7 +2414,7 @@
       <c r="J46" s="2">
         <v>2.9638700000000001E-4</v>
       </c>
-      <c r="K46" s="30">
+      <c r="K46" s="29">
         <f t="shared" si="11"/>
         <v>2.97874367E-4</v>
       </c>
@@ -2434,7 +2431,7 @@
         <v>0.56539039627950438</v>
       </c>
       <c r="O46" s="4"/>
-      <c r="P46" s="30">
+      <c r="P46" s="29">
         <v>47.812899999999999</v>
       </c>
       <c r="Q46" s="2"/>
@@ -2467,7 +2464,7 @@
       <c r="J47" s="5">
         <v>3.2061199999999998E-3</v>
       </c>
-      <c r="K47" s="31">
+      <c r="K47" s="30">
         <f t="shared" si="11"/>
         <v>2.5144030799999998E-3</v>
       </c>
@@ -2484,7 +2481,7 @@
         <v>0.50034300900309314</v>
       </c>
       <c r="O47" s="4"/>
-      <c r="P47" s="31">
+      <c r="P47" s="30">
         <v>403.596</v>
       </c>
       <c r="Q47" s="5"/>
@@ -2517,7 +2514,7 @@
       <c r="J48" s="2">
         <v>6.3816400000000001E-3</v>
       </c>
-      <c r="K48" s="30">
+      <c r="K48" s="29">
         <f t="shared" si="11"/>
         <v>5.1434879999999999E-3</v>
       </c>
@@ -2534,7 +2531,7 @@
         <v>0.53524042907152269</v>
       </c>
       <c r="O48" s="4"/>
-      <c r="P48" s="30">
+      <c r="P48" s="29">
         <v>825.6</v>
       </c>
       <c r="Q48" s="2"/>
@@ -2567,7 +2564,7 @@
       <c r="J49" s="5">
         <v>1.26023E-2</v>
       </c>
-      <c r="K49" s="31">
+      <c r="K49" s="30">
         <f t="shared" si="11"/>
         <v>1.25591816E-2</v>
       </c>
@@ -2584,7 +2581,7 @@
         <v>0.69943415470677839</v>
       </c>
       <c r="O49" s="4"/>
-      <c r="P49" s="31">
+      <c r="P49" s="30">
         <v>2015.92</v>
       </c>
       <c r="Q49" s="5"/>
@@ -2617,7 +2614,7 @@
       <c r="J50" s="2">
         <v>1.8516899999999999E-2</v>
       </c>
-      <c r="K50" s="30">
+      <c r="K50" s="29">
         <f t="shared" si="11"/>
         <v>1.8564839299999997E-2</v>
       </c>
@@ -2634,7 +2631,7 @@
         <v>0.72884270802520112</v>
       </c>
       <c r="O50" s="4"/>
-      <c r="P50" s="30">
+      <c r="P50" s="29">
         <v>2979.91</v>
       </c>
       <c r="Q50" s="2"/>
@@ -2667,7 +2664,7 @@
       <c r="J51" s="5">
         <v>2.44475E-2</v>
       </c>
-      <c r="K51" s="31">
+      <c r="K51" s="30">
         <f t="shared" si="11"/>
         <v>2.4434994500000001E-2</v>
       </c>
@@ -2684,7 +2681,7 @@
         <v>0.75375605255112621</v>
       </c>
       <c r="O51" s="4"/>
-      <c r="P51" s="31">
+      <c r="P51" s="30">
         <v>3922.15</v>
       </c>
       <c r="Q51" s="5"/>
@@ -2717,7 +2714,7 @@
       <c r="J52" s="2">
         <v>3.0182199999999999E-2</v>
       </c>
-      <c r="K52" s="30">
+      <c r="K52" s="29">
         <f t="shared" si="11"/>
         <v>3.0129525999999997E-2</v>
       </c>
@@ -2734,7 +2731,7 @@
         <v>0.77145978253575531</v>
       </c>
       <c r="O52" s="4"/>
-      <c r="P52" s="30">
+      <c r="P52" s="29">
         <v>4836.2</v>
       </c>
       <c r="Q52" s="2"/>
@@ -2764,8 +2761,10 @@
       <c r="I53" s="17">
         <v>4.3543999999999999E-2</v>
       </c>
-      <c r="J53" s="5"/>
-      <c r="K53" s="31">
+      <c r="J53" s="5">
+        <v>4.8447299999999999E-2</v>
+      </c>
+      <c r="K53" s="30">
         <f>P53*$T$5*$W$3*1E-24+0.008</f>
         <v>4.7207570499999997E-2</v>
       </c>
@@ -2775,14 +2774,14 @@
       </c>
       <c r="M53" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.82137283592286769</v>
       </c>
       <c r="N53" s="9">
         <f t="shared" si="12"/>
         <v>0.80035453077083152</v>
       </c>
       <c r="O53" s="4"/>
-      <c r="P53" s="31">
+      <c r="P53" s="30">
         <v>6293.35</v>
       </c>
       <c r="Q53" s="5"/>
@@ -2812,8 +2811,10 @@
       <c r="I54" s="16">
         <v>8.01066E-2</v>
       </c>
-      <c r="J54" s="2"/>
-      <c r="K54" s="30">
+      <c r="J54" s="2">
+        <v>8.9392399999999997E-2</v>
+      </c>
+      <c r="K54" s="29">
         <f>P54*$T$4*$W$3*1E-24</f>
         <v>8.9221698999999988E-2</v>
       </c>
@@ -2823,14 +2824,14 @@
       </c>
       <c r="M54" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.86290194261690956</v>
       </c>
       <c r="N54" s="11">
         <f t="shared" si="12"/>
         <v>0.86125417139131699</v>
       </c>
       <c r="O54" s="4"/>
-      <c r="P54" s="30">
+      <c r="P54" s="29">
         <v>14321.3</v>
       </c>
       <c r="Q54" s="2"/>
@@ -2860,8 +2861,10 @@
       <c r="I55" s="17">
         <v>0.114644</v>
       </c>
-      <c r="J55" s="5"/>
-      <c r="K55" s="31">
+      <c r="J55" s="5">
+        <v>0.12684899999999999</v>
+      </c>
+      <c r="K55" s="30">
         <f>P55*$T$4*$W$3*1E-24</f>
         <v>0.126647801</v>
       </c>
@@ -2871,14 +2874,14 @@
       </c>
       <c r="M55" s="9">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.87364962839429117</v>
       </c>
       <c r="N55" s="9">
         <f t="shared" si="12"/>
         <v>0.87226390653930375</v>
       </c>
       <c r="O55" s="4"/>
-      <c r="P55" s="31">
+      <c r="P55" s="30">
         <v>20328.7</v>
       </c>
       <c r="Q55" s="5"/>
@@ -2906,8 +2909,10 @@
         <v>0.185920101577397</v>
       </c>
       <c r="I56" s="16"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="30">
+      <c r="J56" s="2">
+        <v>0.162772</v>
+      </c>
+      <c r="K56" s="29">
         <f>P56*$T$4*$W$3*1E-24</f>
         <v>0.16153143999999997</v>
       </c>
@@ -2917,703 +2922,16 @@
       </c>
       <c r="M56" s="11">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>0.87549435816244625</v>
       </c>
       <c r="N56" s="11">
         <f t="shared" si="12"/>
         <v>0.86882181447580464</v>
       </c>
       <c r="O56" s="4"/>
-      <c r="P56" s="30">
+      <c r="P56" s="29">
         <v>25928</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="H58" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="24"/>
-      <c r="I59" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="J59" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="K59" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="L59" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="M59" s="14"/>
-      <c r="N59" s="14"/>
-      <c r="P59" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q59" s="8"/>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K60" s="7"/>
-      <c r="L60" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="M60" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="N60" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="O60" s="18"/>
-      <c r="P60" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q60" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>0.1</v>
-      </c>
-      <c r="B61" s="11">
-        <f t="shared" ref="B61:B73" si="15">A61*$Q$5</f>
-        <v>4.0296735505064935E-2</v>
-      </c>
-      <c r="C61" s="12">
-        <v>2.1099999999999999E-3</v>
-      </c>
-      <c r="D61" s="4"/>
-      <c r="E61" s="13">
-        <v>23.784832000000002</v>
-      </c>
-      <c r="F61" s="13">
-        <v>29.746282999999998</v>
-      </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="2">
-        <v>3.52725672373683E-5</v>
-      </c>
-      <c r="I61" s="20">
-        <v>3.4288459937199994E-5</v>
-      </c>
-      <c r="J61" s="2">
-        <v>2.0764465399999998E-5</v>
-      </c>
-      <c r="K61" s="16">
-        <v>2.0531214199999999E-5</v>
-      </c>
-      <c r="L61" s="11">
-        <f>I61/H61</f>
-        <v>0.97209992418341107</v>
-      </c>
-      <c r="M61" s="11">
-        <f>J61/H61</f>
-        <v>0.58868596834090958</v>
-      </c>
-      <c r="N61" s="11">
-        <f t="shared" ref="N61:N73" si="16">K61/H61</f>
-        <v>0.58207314658539844</v>
-      </c>
-      <c r="O61" s="4"/>
-      <c r="P61" s="16"/>
-      <c r="Q61" s="2"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="B62" s="9">
-        <f t="shared" si="15"/>
-        <v>0.20148367752532464</v>
-      </c>
-      <c r="C62" s="10">
-        <v>1.055E-2</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="6">
-        <v>10.636900000000001</v>
-      </c>
-      <c r="F62" s="6">
-        <v>13.302942</v>
-      </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5">
-        <v>1.76088265923015E-4</v>
-      </c>
-      <c r="I62" s="21">
-        <v>1.7111952961599997E-4</v>
-      </c>
-      <c r="J62" s="5">
-        <v>1.1061240399999999E-4</v>
-      </c>
-      <c r="K62" s="17">
-        <v>1.06846369E-4</v>
-      </c>
-      <c r="L62" s="9">
-        <f t="shared" ref="L62:L73" si="17">I62/H62</f>
-        <v>0.9717826949969095</v>
-      </c>
-      <c r="M62" s="9">
-        <f t="shared" ref="M62:M73" si="18">J62/H62</f>
-        <v>0.62816453680314643</v>
-      </c>
-      <c r="N62" s="9">
-        <f t="shared" si="16"/>
-        <v>0.60677733658137534</v>
-      </c>
-      <c r="O62" s="4"/>
-      <c r="P62" s="17"/>
-      <c r="Q62" s="5"/>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>1.5</v>
-      </c>
-      <c r="B63" s="11">
-        <f t="shared" si="15"/>
-        <v>0.60445103257597399</v>
-      </c>
-      <c r="C63" s="12">
-        <v>3.1649999999999998E-2</v>
-      </c>
-      <c r="D63" s="4"/>
-      <c r="E63" s="13">
-        <v>6.1412170000000001</v>
-      </c>
-      <c r="F63" s="13">
-        <v>7.6804569999999996</v>
-      </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="2">
-        <v>5.2684723504348998E-4</v>
-      </c>
-      <c r="I63" s="20">
-        <v>5.1184438984000003E-4</v>
-      </c>
-      <c r="J63" s="2">
-        <v>3.3546182599999996E-4</v>
-      </c>
-      <c r="K63" s="16">
-        <v>2.9865685499999995E-4</v>
-      </c>
-      <c r="L63" s="11">
-        <f t="shared" si="17"/>
-        <v>0.97152334831509268</v>
-      </c>
-      <c r="M63" s="11">
-        <f t="shared" si="18"/>
-        <v>0.63673452888541471</v>
-      </c>
-      <c r="N63" s="11">
-        <f t="shared" si="16"/>
-        <v>0.56687562377611522</v>
-      </c>
-      <c r="O63" s="4"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="2"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
-        <v>15</v>
-      </c>
-      <c r="B64" s="9">
-        <f t="shared" si="15"/>
-        <v>6.044510325759739</v>
-      </c>
-      <c r="C64" s="10">
-        <v>0.31649699999999997</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="6">
-        <v>1.9420230000000001</v>
-      </c>
-      <c r="F64" s="6">
-        <v>2.4287740000000002</v>
-      </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5">
-        <v>5.02535867346246E-3</v>
-      </c>
-      <c r="I64" s="21">
-        <v>4.88413162972E-3</v>
-      </c>
-      <c r="J64" s="5">
-        <v>3.1236285499999998E-3</v>
-      </c>
-      <c r="K64" s="17">
-        <v>2.5054505700000001E-3</v>
-      </c>
-      <c r="L64" s="9">
-        <f t="shared" si="17"/>
-        <v>0.97189712159487418</v>
-      </c>
-      <c r="M64" s="9">
-        <f t="shared" si="18"/>
-        <v>0.62157325535688124</v>
-      </c>
-      <c r="N64" s="9">
-        <f t="shared" si="16"/>
-        <v>0.4985615421304348</v>
-      </c>
-      <c r="O64" s="4"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="5"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>30</v>
-      </c>
-      <c r="B65" s="11">
-        <f t="shared" si="15"/>
-        <v>12.089020651519478</v>
-      </c>
-      <c r="C65" s="12">
-        <v>0.63299399999999995</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="13">
-        <v>1.373218</v>
-      </c>
-      <c r="F65" s="13">
-        <v>1.7174020000000001</v>
-      </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="2">
-        <v>9.6096776712520909E-3</v>
-      </c>
-      <c r="I65" s="16">
-        <v>9.338383665239999E-3</v>
-      </c>
-      <c r="J65" s="2">
-        <v>6.2577857999999995E-3</v>
-      </c>
-      <c r="K65" s="16">
-        <v>5.1258882499999993E-3</v>
-      </c>
-      <c r="L65" s="11">
-        <f t="shared" si="17"/>
-        <v>0.97176866745242829</v>
-      </c>
-      <c r="M65" s="11">
-        <f t="shared" si="18"/>
-        <v>0.65119622260802035</v>
-      </c>
-      <c r="N65" s="11">
-        <f t="shared" si="16"/>
-        <v>0.5334089680587718</v>
-      </c>
-      <c r="O65" s="4"/>
-      <c r="P65" s="16"/>
-      <c r="Q65" s="2"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
-        <v>60</v>
-      </c>
-      <c r="B66" s="9">
-        <f t="shared" si="15"/>
-        <v>24.178041303038956</v>
-      </c>
-      <c r="C66" s="10">
-        <v>1.265987</v>
-      </c>
-      <c r="D66" s="4"/>
-      <c r="E66" s="6">
-        <v>0.97101199999999999</v>
-      </c>
-      <c r="F66" s="6">
-        <v>1.2143870000000001</v>
-      </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5">
-        <v>1.7956202904139199E-2</v>
-      </c>
-      <c r="I66" s="17">
-        <v>1.7408149340399998E-2</v>
-      </c>
-      <c r="J66" s="5">
-        <v>1.2780408899999998E-2</v>
-      </c>
-      <c r="K66" s="17">
-        <v>1.25560043E-2</v>
-      </c>
-      <c r="L66" s="9">
-        <f t="shared" si="17"/>
-        <v>0.96947831528385853</v>
-      </c>
-      <c r="M66" s="9">
-        <f t="shared" si="18"/>
-        <v>0.71175453787358933</v>
-      </c>
-      <c r="N66" s="9">
-        <f t="shared" si="16"/>
-        <v>0.69925720749711706</v>
-      </c>
-      <c r="O66" s="4"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="5"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>90</v>
-      </c>
-      <c r="B67" s="11">
-        <f t="shared" si="15"/>
-        <v>36.267061954558436</v>
-      </c>
-      <c r="C67" s="12">
-        <v>1.898981</v>
-      </c>
-      <c r="D67" s="4"/>
-      <c r="E67" s="13">
-        <v>0.79282799999999998</v>
-      </c>
-      <c r="F67" s="13">
-        <v>0.99154299999999995</v>
-      </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="2">
-        <v>2.54716677488637E-2</v>
-      </c>
-      <c r="I67" s="16">
-        <v>2.4696861585199997E-2</v>
-      </c>
-      <c r="J67" s="2">
-        <v>1.83316504E-2</v>
-      </c>
-      <c r="K67" s="16">
-        <v>1.8560602900000001E-2</v>
-      </c>
-      <c r="L67" s="11">
-        <f t="shared" si="17"/>
-        <v>0.9695816476838951</v>
-      </c>
-      <c r="M67" s="11">
-        <f t="shared" si="18"/>
-        <v>0.71968787363040965</v>
-      </c>
-      <c r="N67" s="11">
-        <f t="shared" si="16"/>
-        <v>0.72867638990101047</v>
-      </c>
-      <c r="O67" s="4"/>
-      <c r="P67" s="16"/>
-      <c r="Q67" s="2"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
-        <v>120</v>
-      </c>
-      <c r="B68" s="9">
-        <f t="shared" si="15"/>
-        <v>48.356082606077912</v>
-      </c>
-      <c r="C68" s="10">
-        <v>2.5319750000000001</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="6">
-        <v>0.68660900000000002</v>
-      </c>
-      <c r="F68" s="6">
-        <v>0.85870100000000005</v>
-      </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5">
-        <v>3.2417642839879697E-2</v>
-      </c>
-      <c r="I68" s="17">
-        <v>3.1496843537600003E-2</v>
-      </c>
-      <c r="J68" s="5">
-        <v>2.4631987099999999E-2</v>
-      </c>
-      <c r="K68" s="17">
-        <v>2.4498665099999997E-2</v>
-      </c>
-      <c r="L68" s="9">
-        <f t="shared" si="17"/>
-        <v>0.9715957354818241</v>
-      </c>
-      <c r="M68" s="9">
-        <f t="shared" si="18"/>
-        <v>0.75983276210625961</v>
-      </c>
-      <c r="N68" s="9">
-        <f t="shared" si="16"/>
-        <v>0.75572012502593522</v>
-      </c>
-      <c r="O68" s="4"/>
-      <c r="P68" s="17"/>
-      <c r="Q68" s="5"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>150</v>
-      </c>
-      <c r="B69" s="11">
-        <f t="shared" si="15"/>
-        <v>60.445103257597395</v>
-      </c>
-      <c r="C69" s="12">
-        <v>3.1649690000000001</v>
-      </c>
-      <c r="D69" s="4"/>
-      <c r="E69" s="13">
-        <v>0.61412199999999995</v>
-      </c>
-      <c r="F69" s="13">
-        <v>0.76804600000000001</v>
-      </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="2">
-        <v>3.9055212834252402E-2</v>
-      </c>
-      <c r="I69" s="16">
-        <v>3.7975434243599997E-2</v>
-      </c>
-      <c r="J69" s="2">
-        <v>3.0206154999999998E-2</v>
-      </c>
-      <c r="K69" s="16">
-        <v>3.0258923099999998E-2</v>
-      </c>
-      <c r="L69" s="11">
-        <f t="shared" si="17"/>
-        <v>0.97235251040021442</v>
-      </c>
-      <c r="M69" s="11">
-        <f t="shared" si="18"/>
-        <v>0.77342185096245186</v>
-      </c>
-      <c r="N69" s="11">
-        <f t="shared" si="16"/>
-        <v>0.77477296637498194</v>
-      </c>
-      <c r="O69" s="4"/>
-      <c r="P69" s="16"/>
-      <c r="Q69" s="2"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
-        <v>250</v>
-      </c>
-      <c r="B70" s="9">
-        <f t="shared" si="15"/>
-        <v>100.74183876266233</v>
-      </c>
-      <c r="C70" s="10">
-        <v>5.2749480000000002</v>
-      </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="6">
-        <v>0.47569699999999998</v>
-      </c>
-      <c r="F70" s="6">
-        <v>0.59492599999999995</v>
-      </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5">
-        <v>5.8983323870902299E-2</v>
-      </c>
-      <c r="I70" s="17">
-        <v>5.7744756325199986E-2</v>
-      </c>
-      <c r="J70" s="5">
-        <v>4.8230853299999994E-2</v>
-      </c>
-      <c r="K70" s="17">
-        <v>4.7235667799999992E-2</v>
-      </c>
-      <c r="L70" s="9">
-        <f t="shared" si="17"/>
-        <v>0.97900139455665158</v>
-      </c>
-      <c r="M70" s="9">
-        <f t="shared" si="18"/>
-        <v>0.81770321058141104</v>
-      </c>
-      <c r="N70" s="9">
-        <f t="shared" si="16"/>
-        <v>0.80083089083594916</v>
-      </c>
-      <c r="O70" s="4"/>
-      <c r="P70" s="17"/>
-      <c r="Q70" s="5"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>500</v>
-      </c>
-      <c r="B71" s="11">
-        <f t="shared" si="15"/>
-        <v>201.48367752532465</v>
-      </c>
-      <c r="C71" s="12">
-        <v>10.549896</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="13">
-        <v>0.336368</v>
-      </c>
-      <c r="F71" s="13">
-        <v>0.42067599999999999</v>
-      </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="2">
-        <v>0.103595084893309</v>
-      </c>
-      <c r="I71" s="16">
-        <v>0.10128474657560001</v>
-      </c>
-      <c r="J71" s="2">
-        <v>8.8566302999999999E-2</v>
-      </c>
-      <c r="K71" s="16">
-        <v>8.9152545999999999E-2</v>
-      </c>
-      <c r="L71" s="11">
-        <f t="shared" si="17"/>
-        <v>0.97769837902938761</v>
-      </c>
-      <c r="M71" s="11">
-        <f t="shared" si="18"/>
-        <v>0.85492765502545887</v>
-      </c>
-      <c r="N71" s="11">
-        <f t="shared" si="16"/>
-        <v>0.86058663972153548</v>
-      </c>
-      <c r="O71" s="4"/>
-      <c r="P71" s="16"/>
-      <c r="Q71" s="2"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
-        <v>750</v>
-      </c>
-      <c r="B72" s="9">
-        <f t="shared" si="15"/>
-        <v>302.22551628798698</v>
-      </c>
-      <c r="C72" s="10">
-        <v>15.824844000000001</v>
-      </c>
-      <c r="D72" s="4"/>
-      <c r="E72" s="6">
-        <v>0.274644</v>
-      </c>
-      <c r="F72" s="6">
-        <v>0.34348000000000001</v>
-      </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5">
-        <v>0.14519436153500101</v>
-      </c>
-      <c r="I72" s="17">
-        <v>0.14184209068399997</v>
-      </c>
-      <c r="J72" s="5">
-        <v>0.12434955399999999</v>
-      </c>
-      <c r="K72" s="17">
-        <v>0.12664842399999998</v>
-      </c>
-      <c r="L72" s="9">
-        <f t="shared" si="17"/>
-        <v>0.9769118386171427</v>
-      </c>
-      <c r="M72" s="9">
-        <f t="shared" si="18"/>
-        <v>0.85643514448750746</v>
-      </c>
-      <c r="N72" s="9">
-        <f t="shared" si="16"/>
-        <v>0.87226819733953453</v>
-      </c>
-      <c r="O72" s="4"/>
-      <c r="P72" s="17"/>
-      <c r="Q72" s="5"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>1000</v>
-      </c>
-      <c r="B73" s="11">
-        <f t="shared" si="15"/>
-        <v>402.9673550506493</v>
-      </c>
-      <c r="C73" s="12">
-        <v>21.09958</v>
-      </c>
-      <c r="D73" s="4"/>
-      <c r="E73" s="13">
-        <v>0.23785000000000001</v>
-      </c>
-      <c r="F73" s="13">
-        <v>0.29746400000000001</v>
-      </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="2">
-        <v>0.185920101577397</v>
-      </c>
-      <c r="I73" s="16">
-        <v>0.18159106812</v>
-      </c>
-      <c r="J73" s="2">
-        <v>0.16219431200000001</v>
-      </c>
-      <c r="K73" s="16">
-        <v>0.16194324299999999</v>
-      </c>
-      <c r="L73" s="11">
-        <f t="shared" si="17"/>
-        <v>0.97671562450392246</v>
-      </c>
-      <c r="M73" s="11">
-        <f t="shared" si="18"/>
-        <v>0.87238717397365373</v>
-      </c>
-      <c r="N73" s="11">
-        <f t="shared" si="16"/>
-        <v>0.87103676055482548</v>
-      </c>
-      <c r="O73" s="4"/>
-      <c r="P73" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MCNP/wedge_data_2025-12-31.xlsx
+++ b/MCNP/wedge_data_2025-12-31.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP\emma-openmc\MCNP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78376352-570C-4FAC-9F27-6FF993714211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837CC2BB-6C87-4036-B6B1-DA2460BFBAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -614,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58FC2A7-2007-48F8-8A3D-08B47124466B}">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/MCNP/wedge_data_2025-12-31.xlsx
+++ b/MCNP/wedge_data_2025-12-31.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCNP\emma-openmc\MCNP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837CC2BB-6C87-4036-B6B1-DA2460BFBAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469F683F-89E6-49AC-BFEF-9CF1885BB7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-36" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Fissile production" sheetId="2" r:id="rId1"/>
+    <sheet name="TBR" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="46">
   <si>
     <t>BISO vol%</t>
   </si>
@@ -299,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -331,7 +332,9 @@
     <xf numFmtId="11" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,6 +350,1976 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TBR!$A$44:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TBR!$M$44:$M$56</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.98215385902659358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98203818000196974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98233124644332637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98414421045326572</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98620843151639703</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9879632515229031</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98890099734312431</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99111928758233259</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9920968502601536</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99638513194317113</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0083240032099037</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0206371812187167</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0391633324972136</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1709-422B-8CA4-59B504B450C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1455515999"/>
+        <c:axId val="1455516479"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1455515999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1455516479"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1455516479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1455515999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.4565179352580927E-2"/>
+                  <c:y val="-0.49178222513852438"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>TBR!$A$44:$A$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>TBR!$J$44:$J$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1.3791474000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3790180999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3789032000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.375659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3743595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3686853999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3632628</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.357774</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3511147999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3364325000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.3004206</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2678955999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2406356999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EEE4-441D-98AC-D137F46927DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1241295039"/>
+        <c:axId val="1241295999"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1241295039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1241295999"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1241295999"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1241295039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B42F2290-4DFB-6B45-BBE8-ACC4588ADC6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDA11E85-7399-8880-3D0C-FAFB9434441D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -614,8 +2587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58FC2A7-2007-48F8-8A3D-08B47124466B}">
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="R39" sqref="R39"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1586,15 +3559,15 @@
         <f>P27*$T$4*$W$3*1E-24</f>
         <v>2.0764465399999998E-5</v>
       </c>
-      <c r="L27" s="31">
+      <c r="L27" s="11">
         <f t="shared" ref="L27:L39" si="6">I27/H27</f>
         <v>0.62980105333714986</v>
       </c>
-      <c r="M27" s="31">
+      <c r="M27" s="11">
         <f t="shared" ref="M27:M39" si="7">J27/H27</f>
         <v>0.63813897776495931</v>
       </c>
-      <c r="N27" s="31">
+      <c r="N27" s="11">
         <f t="shared" ref="N27:N39" si="8">K27/H27</f>
         <v>0.58868596834090958</v>
       </c>
@@ -2177,15 +4150,15 @@
         <f t="shared" si="9"/>
         <v>0.16219431200000001</v>
       </c>
-      <c r="L39" s="31">
+      <c r="L39" s="11">
         <f t="shared" si="6"/>
         <v>0.94246398594536107</v>
       </c>
-      <c r="M39" s="31">
+      <c r="M39" s="11">
         <f t="shared" si="7"/>
         <v>0.85681966957018219</v>
       </c>
-      <c r="N39" s="31">
+      <c r="N39" s="11">
         <f t="shared" si="8"/>
         <v>0.87238717397365373</v>
       </c>
@@ -2312,7 +4285,7 @@
         <v>42</v>
       </c>
       <c r="J44" s="2">
-        <v>2.1465299999999999E-5</v>
+        <v>2.1398000000000001E-5</v>
       </c>
       <c r="K44" s="29">
         <f t="shared" ref="K44:K52" si="11">P44*$T$4*$W$3*1E-24</f>
@@ -2324,7 +4297,7 @@
       </c>
       <c r="M44" s="11">
         <f>J44/H44</f>
-        <v>0.60855508065370789</v>
+        <v>0.60664708230623576</v>
       </c>
       <c r="N44" s="11">
         <f t="shared" ref="N44:N56" si="12">K44/H44</f>
@@ -2362,7 +4335,7 @@
         <v>43</v>
       </c>
       <c r="J45" s="5">
-        <v>1.07538E-4</v>
+        <v>1.0739300000000001E-4</v>
       </c>
       <c r="K45" s="30">
         <f t="shared" si="11"/>
@@ -2374,7 +4347,7 @@
       </c>
       <c r="M45" s="9">
         <f t="shared" ref="M45:M56" si="14">J45/H45</f>
-        <v>0.610705088361851</v>
+        <v>0.60988163769499404</v>
       </c>
       <c r="N45" s="9">
         <f t="shared" si="12"/>
@@ -2412,7 +4385,7 @@
         <v>44</v>
       </c>
       <c r="J46" s="2">
-        <v>2.9638700000000001E-4</v>
+        <v>3.2153200000000002E-4</v>
       </c>
       <c r="K46" s="29">
         <f t="shared" si="11"/>
@@ -2424,7 +4397,7 @@
       </c>
       <c r="M46" s="11">
         <f t="shared" si="14"/>
-        <v>0.56256724964217375</v>
+        <v>0.61029455715651293</v>
       </c>
       <c r="N46" s="11">
         <f t="shared" si="12"/>
@@ -2462,7 +4435,7 @@
         <v>2.8804099999999999E-3</v>
       </c>
       <c r="J47" s="5">
-        <v>3.2061199999999998E-3</v>
+        <v>3.2092700000000002E-3</v>
       </c>
       <c r="K47" s="30">
         <f t="shared" si="11"/>
@@ -2474,7 +4447,7 @@
       </c>
       <c r="M47" s="9">
         <f t="shared" si="14"/>
-        <v>0.63798829264279977</v>
+        <v>0.63861511357334044</v>
       </c>
       <c r="N47" s="9">
         <f t="shared" si="12"/>
@@ -2512,7 +4485,7 @@
         <v>5.7066199999999999E-3</v>
       </c>
       <c r="J48" s="2">
-        <v>6.3816400000000001E-3</v>
+        <v>6.3941700000000002E-3</v>
       </c>
       <c r="K48" s="29">
         <f t="shared" si="11"/>
@@ -2524,7 +4497,7 @@
       </c>
       <c r="M48" s="11">
         <f t="shared" si="14"/>
-        <v>0.66408470901069316</v>
+        <v>0.66538860290064994</v>
       </c>
       <c r="N48" s="11">
         <f t="shared" si="12"/>
@@ -2562,7 +4535,7 @@
         <v>1.13375E-2</v>
       </c>
       <c r="J49" s="5">
-        <v>1.26023E-2</v>
+        <v>1.24683E-2</v>
       </c>
       <c r="K49" s="30">
         <f t="shared" si="11"/>
@@ -2574,7 +4547,7 @@
       </c>
       <c r="M49" s="9">
         <f t="shared" si="14"/>
-        <v>0.70183546417238152</v>
+        <v>0.69437286193317926</v>
       </c>
       <c r="N49" s="9">
         <f t="shared" si="12"/>
@@ -2612,7 +4585,7 @@
         <v>1.6732899999999998E-2</v>
       </c>
       <c r="J50" s="2">
-        <v>1.8516899999999999E-2</v>
+        <v>1.86032E-2</v>
       </c>
       <c r="K50" s="29">
         <f t="shared" si="11"/>
@@ -2624,7 +4597,7 @@
       </c>
       <c r="M50" s="11">
         <f t="shared" si="14"/>
-        <v>0.72696064437422026</v>
+        <v>0.7303487224871601</v>
       </c>
       <c r="N50" s="11">
         <f t="shared" si="12"/>
@@ -2662,7 +4635,7 @@
         <v>2.1914300000000001E-2</v>
       </c>
       <c r="J51" s="5">
-        <v>2.44475E-2</v>
+        <v>2.4458799999999999E-2</v>
       </c>
       <c r="K51" s="30">
         <f t="shared" si="11"/>
@@ -2674,7 +4647,7 @@
       </c>
       <c r="M51" s="9">
         <f t="shared" si="14"/>
-        <v>0.75414181471346997</v>
+        <v>0.75449039033495524</v>
       </c>
       <c r="N51" s="9">
         <f t="shared" si="12"/>
@@ -2712,7 +4685,7 @@
         <v>2.7247799999999999E-2</v>
       </c>
       <c r="J52" s="2">
-        <v>3.0182199999999999E-2</v>
+        <v>2.9931300000000001E-2</v>
       </c>
       <c r="K52" s="29">
         <f t="shared" si="11"/>
@@ -2724,7 +4697,7 @@
       </c>
       <c r="M52" s="11">
         <f t="shared" si="14"/>
-        <v>0.77280848853880657</v>
+        <v>0.76638425008785249</v>
       </c>
       <c r="N52" s="11">
         <f t="shared" si="12"/>
@@ -2939,4 +4912,2309 @@
     <ignoredError sqref="K53" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22416C2-1180-4450-A3B0-0B08DD9AEC85}">
+  <dimension ref="A1:W56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="R61" sqref="R61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="1.88671875" customWidth="1"/>
+    <col min="5" max="6" width="8" customWidth="1"/>
+    <col min="7" max="7" width="2.109375" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" customWidth="1"/>
+    <col min="12" max="13" width="12.77734375" customWidth="1"/>
+    <col min="14" max="14" width="16.44140625" customWidth="1"/>
+    <col min="15" max="15" width="2.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q3">
+        <f>4/3*PI()*(0.04)^3</f>
+        <v>2.6808257310632905E-4</v>
+      </c>
+      <c r="S3" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3">
+        <v>2012</v>
+      </c>
+      <c r="V3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" s="2">
+        <v>6.23E+18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <f>4/3*PI()*(0.05)^3</f>
+        <v>5.2359877559829892E-4</v>
+      </c>
+      <c r="S4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q5">
+        <f>(238.02+32)/238.05 / Q3 / 10.5 / 100^3 * 1000</f>
+        <v>0.40296735505064929</v>
+      </c>
+      <c r="S5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="P7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="P8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+    </row>
+    <row r="9" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0.1</v>
+      </c>
+      <c r="B10" s="11">
+        <f t="shared" ref="B10:B22" si="0">A10*$Q$5</f>
+        <v>4.0296735505064935E-2</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2.1099999999999999E-3</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="13">
+        <v>23.784832000000002</v>
+      </c>
+      <c r="F10" s="13">
+        <v>29.746282999999998</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="27">
+        <v>3.52725672373683E-5</v>
+      </c>
+      <c r="I10" s="22">
+        <v>3.4271699999999999E-5</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3.4428100000000003E-5</v>
+      </c>
+      <c r="K10" s="2">
+        <f>P10*$T$3*$W$3*1E-24</f>
+        <v>3.4288459937199994E-5</v>
+      </c>
+      <c r="L10" s="11">
+        <f t="shared" ref="L10:L22" si="1">I10/H10</f>
+        <v>0.97162476916882967</v>
+      </c>
+      <c r="M10" s="11">
+        <f t="shared" ref="M10:M22" si="2">J10/H10</f>
+        <v>0.97605880990500582</v>
+      </c>
+      <c r="N10" s="11">
+        <f t="shared" ref="N10:N22" si="3">K10/H10</f>
+        <v>0.97209992418341107</v>
+      </c>
+      <c r="O10" s="4"/>
+      <c r="P10" s="2">
+        <v>2.7354699999999998E-3</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+    </row>
+    <row r="11" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.20148367752532464</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1.055E-2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>10.636900000000001</v>
+      </c>
+      <c r="F11" s="6">
+        <v>13.302942</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="28">
+        <v>1.76088265923015E-4</v>
+      </c>
+      <c r="I11" s="26">
+        <v>1.7047000000000001E-4</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1.7116899999999999E-4</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" ref="K11:K22" si="4">P11*$T$3*$W$3*1E-24</f>
+        <v>1.7111952961599997E-4</v>
+      </c>
+      <c r="L11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.96809403571802299</v>
+      </c>
+      <c r="M11" s="9">
+        <f t="shared" si="2"/>
+        <v>0.97206363582928523</v>
+      </c>
+      <c r="N11" s="9">
+        <f t="shared" si="3"/>
+        <v>0.9717826949969095</v>
+      </c>
+      <c r="P11" s="5">
+        <v>1.36516E-2</v>
+      </c>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1.5</v>
+      </c>
+      <c r="B12" s="11">
+        <f t="shared" si="0"/>
+        <v>0.60445103257597399</v>
+      </c>
+      <c r="C12" s="12">
+        <v>3.1649999999999998E-2</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="13">
+        <v>6.1412170000000001</v>
+      </c>
+      <c r="F12" s="13">
+        <v>7.6804569999999996</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="27">
+        <v>5.2684723504348998E-4</v>
+      </c>
+      <c r="I12" s="22">
+        <v>5.1337799999999999E-4</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5.1237400000000001E-4</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="4"/>
+        <v>5.1184438984000003E-4</v>
+      </c>
+      <c r="L12" s="11">
+        <f t="shared" si="1"/>
+        <v>0.97443426832755775</v>
+      </c>
+      <c r="M12" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97252859257713431</v>
+      </c>
+      <c r="N12" s="11">
+        <f t="shared" si="3"/>
+        <v>0.97152334831509268</v>
+      </c>
+      <c r="O12" s="4"/>
+      <c r="P12" s="2">
+        <v>4.0834000000000002E-2</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+    </row>
+    <row r="13" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>15</v>
+      </c>
+      <c r="B13" s="9">
+        <f t="shared" si="0"/>
+        <v>6.044510325759739</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.31649699999999997</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1.9420230000000001</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2.4287740000000002</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="28">
+        <v>5.02535867346246E-3</v>
+      </c>
+      <c r="I13" s="26">
+        <v>4.8983400000000002E-3</v>
+      </c>
+      <c r="J13" s="5">
+        <v>4.8734900000000003E-3</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="4"/>
+        <v>4.88413162972E-3</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.97472445616007264</v>
+      </c>
+      <c r="M13" s="9">
+        <f t="shared" si="2"/>
+        <v>0.96977953548580786</v>
+      </c>
+      <c r="N13" s="9">
+        <f t="shared" si="3"/>
+        <v>0.97189712159487418</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.38964700000000002</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>30</v>
+      </c>
+      <c r="B14" s="11">
+        <f t="shared" si="0"/>
+        <v>12.089020651519478</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0.63299399999999995</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="13">
+        <v>1.373218</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1.7174020000000001</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="27">
+        <v>9.6096776712520909E-3</v>
+      </c>
+      <c r="I14" s="22">
+        <v>9.3411799999999993E-3</v>
+      </c>
+      <c r="J14" s="2">
+        <v>9.3206399999999998E-3</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="4"/>
+        <v>9.338383665239999E-3</v>
+      </c>
+      <c r="L14" s="11">
+        <f t="shared" si="1"/>
+        <v>0.97205965897739544</v>
+      </c>
+      <c r="M14" s="11">
+        <f t="shared" si="2"/>
+        <v>0.9699222303660856</v>
+      </c>
+      <c r="N14" s="11">
+        <f t="shared" si="3"/>
+        <v>0.97176866745242829</v>
+      </c>
+      <c r="O14" s="4"/>
+      <c r="P14" s="2">
+        <v>0.74499899999999997</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+    </row>
+    <row r="15" spans="1:23" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>60</v>
+      </c>
+      <c r="B15" s="9">
+        <f t="shared" si="0"/>
+        <v>24.178041303038956</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1.265987</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.97101199999999999</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1.2143870000000001</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="28">
+        <v>1.7956202904139199E-2</v>
+      </c>
+      <c r="I15" s="26">
+        <v>1.7297199999999999E-2</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1.75224E-2</v>
+      </c>
+      <c r="K15" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7408149340399998E-2</v>
+      </c>
+      <c r="L15" s="9">
+        <f t="shared" si="1"/>
+        <v>0.96329942874574614</v>
+      </c>
+      <c r="M15" s="9">
+        <f t="shared" si="2"/>
+        <v>0.97584105579252511</v>
+      </c>
+      <c r="N15" s="9">
+        <f t="shared" si="3"/>
+        <v>0.96947831528385853</v>
+      </c>
+      <c r="P15" s="5">
+        <v>1.38879</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>90</v>
+      </c>
+      <c r="B16" s="11">
+        <f t="shared" si="0"/>
+        <v>36.267061954558436</v>
+      </c>
+      <c r="C16" s="12">
+        <v>1.898981</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="13">
+        <v>0.79282799999999998</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.99154299999999995</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="27">
+        <v>2.54716677488637E-2</v>
+      </c>
+      <c r="I16" s="22">
+        <v>2.4680299999999999E-2</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2.4773900000000001E-2</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="4"/>
+        <v>2.4696861585199997E-2</v>
+      </c>
+      <c r="L16" s="11">
+        <f t="shared" si="1"/>
+        <v>0.96893145134169689</v>
+      </c>
+      <c r="M16" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97260612238887156</v>
+      </c>
+      <c r="N16" s="11">
+        <f t="shared" si="3"/>
+        <v>0.9695816476838951</v>
+      </c>
+      <c r="O16" s="4"/>
+      <c r="P16" s="2">
+        <v>1.97027</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+    </row>
+    <row r="17" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>120</v>
+      </c>
+      <c r="B17" s="9">
+        <f t="shared" si="0"/>
+        <v>48.356082606077912</v>
+      </c>
+      <c r="C17" s="10">
+        <v>2.5319750000000001</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.68660900000000002</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.85870100000000005</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="28">
+        <v>3.2417642839879697E-2</v>
+      </c>
+      <c r="I17" s="26">
+        <v>3.15217E-2</v>
+      </c>
+      <c r="J17" s="5">
+        <v>3.1542500000000001E-2</v>
+      </c>
+      <c r="K17" s="5">
+        <f t="shared" si="4"/>
+        <v>3.1496843537600003E-2</v>
+      </c>
+      <c r="L17" s="9">
+        <f t="shared" si="1"/>
+        <v>0.97236249272332897</v>
+      </c>
+      <c r="M17" s="9">
+        <f t="shared" si="2"/>
+        <v>0.97300411864606307</v>
+      </c>
+      <c r="N17" s="9">
+        <f t="shared" si="3"/>
+        <v>0.9715957354818241</v>
+      </c>
+      <c r="P17" s="5">
+        <v>2.5127600000000001</v>
+      </c>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>150</v>
+      </c>
+      <c r="B18" s="11">
+        <f t="shared" si="0"/>
+        <v>60.445103257597395</v>
+      </c>
+      <c r="C18" s="12">
+        <v>3.1649690000000001</v>
+      </c>
+      <c r="D18" s="4"/>
+      <c r="E18" s="13">
+        <v>0.61412199999999995</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0.76804600000000001</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="27">
+        <v>3.9055212834252402E-2</v>
+      </c>
+      <c r="I18" s="22">
+        <v>3.80746E-2</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3.8125399999999997E-2</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="4"/>
+        <v>3.7975434243599997E-2</v>
+      </c>
+      <c r="L18" s="11">
+        <f t="shared" si="1"/>
+        <v>0.97489162744000257</v>
+      </c>
+      <c r="M18" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97619235009169025</v>
+      </c>
+      <c r="N18" s="11">
+        <f t="shared" si="3"/>
+        <v>0.97235251040021442</v>
+      </c>
+      <c r="O18" s="4"/>
+      <c r="P18" s="2">
+        <v>3.0296099999999999</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>250</v>
+      </c>
+      <c r="B19" s="9">
+        <f t="shared" si="0"/>
+        <v>100.74183876266233</v>
+      </c>
+      <c r="C19" s="10">
+        <v>5.2749480000000002</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.47569699999999998</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.59492599999999995</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="28">
+        <v>5.8983323870902299E-2</v>
+      </c>
+      <c r="I19" s="26">
+        <v>5.7466000000000003E-2</v>
+      </c>
+      <c r="J19" s="5">
+        <v>5.76763E-2</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="4"/>
+        <v>5.7744756325199986E-2</v>
+      </c>
+      <c r="L19" s="9">
+        <f t="shared" si="1"/>
+        <v>0.9742753752870339</v>
+      </c>
+      <c r="M19" s="9">
+        <f t="shared" si="2"/>
+        <v>0.97784078981776268</v>
+      </c>
+      <c r="N19" s="9">
+        <f t="shared" si="3"/>
+        <v>0.97900139455665158</v>
+      </c>
+      <c r="P19" s="5">
+        <v>4.60677</v>
+      </c>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="5"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>500</v>
+      </c>
+      <c r="B20" s="11">
+        <f t="shared" si="0"/>
+        <v>201.48367752532465</v>
+      </c>
+      <c r="C20" s="12">
+        <v>10.549896</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="13">
+        <v>0.336368</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0.42067599999999999</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="27">
+        <v>0.103595084893309</v>
+      </c>
+      <c r="I20" s="22">
+        <v>0.10137699999999999</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0.101622</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="4"/>
+        <v>0.10128474657560001</v>
+      </c>
+      <c r="L20" s="11">
+        <f t="shared" si="1"/>
+        <v>0.97858889834789575</v>
+      </c>
+      <c r="M20" s="11">
+        <f t="shared" si="2"/>
+        <v>0.98095387541463919</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" si="3"/>
+        <v>0.97769837902938761</v>
+      </c>
+      <c r="O20" s="4"/>
+      <c r="P20" s="2">
+        <v>8.0803100000000008</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+    </row>
+    <row r="21" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>750</v>
+      </c>
+      <c r="B21" s="9">
+        <f t="shared" si="0"/>
+        <v>302.22551628798698</v>
+      </c>
+      <c r="C21" s="10">
+        <v>15.824844000000001</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0.274644</v>
+      </c>
+      <c r="F21" s="6">
+        <v>0.34348000000000001</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="28">
+        <v>0.14519436153500101</v>
+      </c>
+      <c r="I21" s="26">
+        <v>0.14219300000000001</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0.142043</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="4"/>
+        <v>0.14184209068399997</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="1"/>
+        <v>0.97932866329470047</v>
+      </c>
+      <c r="M21" s="9">
+        <f t="shared" si="2"/>
+        <v>0.97829556532578343</v>
+      </c>
+      <c r="N21" s="9">
+        <f t="shared" si="3"/>
+        <v>0.9769118386171427</v>
+      </c>
+      <c r="P21" s="5">
+        <v>11.315899999999999</v>
+      </c>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="5"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1000</v>
+      </c>
+      <c r="B22" s="11">
+        <f t="shared" si="0"/>
+        <v>402.9673550506493</v>
+      </c>
+      <c r="C22" s="12">
+        <v>21.09958</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="13">
+        <v>0.23785000000000001</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0.29746400000000001</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="27">
+        <v>0.185920101577397</v>
+      </c>
+      <c r="I22" s="22">
+        <v>0.18163399999999999</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0.181612</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="4"/>
+        <v>0.18159106812</v>
+      </c>
+      <c r="L22" s="11">
+        <f t="shared" si="1"/>
+        <v>0.97694654025555849</v>
+      </c>
+      <c r="M22" s="11">
+        <f t="shared" si="2"/>
+        <v>0.97682820985549224</v>
+      </c>
+      <c r="N22" s="11">
+        <f t="shared" si="3"/>
+        <v>0.97671562450392246</v>
+      </c>
+      <c r="O22" s="4"/>
+      <c r="P22" s="2">
+        <v>14.487</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="H24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="H25" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J25" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="P25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+    </row>
+    <row r="26" spans="1:19" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="7"/>
+      <c r="L26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0.1</v>
+      </c>
+      <c r="B27" s="11">
+        <f t="shared" ref="B27:B39" si="5">A27*$Q$5</f>
+        <v>4.0296735505064935E-2</v>
+      </c>
+      <c r="C27" s="12">
+        <v>2.1099999999999999E-3</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="13">
+        <v>23.784832000000002</v>
+      </c>
+      <c r="F27" s="13">
+        <v>29.746282999999998</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="27">
+        <v>3.52725672373683E-5</v>
+      </c>
+      <c r="I27" s="22">
+        <v>2.2214699999999999E-5</v>
+      </c>
+      <c r="J27" s="2">
+        <v>2.25088E-5</v>
+      </c>
+      <c r="K27" s="2">
+        <f>P27*$T$4*$W$3*1E-24</f>
+        <v>2.0764465399999998E-5</v>
+      </c>
+      <c r="L27" s="11">
+        <f t="shared" ref="L27:L39" si="6">I27/H27</f>
+        <v>0.62980105333714986</v>
+      </c>
+      <c r="M27" s="11">
+        <f t="shared" ref="M27:M39" si="7">J27/H27</f>
+        <v>0.63813897776495931</v>
+      </c>
+      <c r="N27" s="11">
+        <f t="shared" ref="N27:N39" si="8">K27/H27</f>
+        <v>0.58868596834090958</v>
+      </c>
+      <c r="O27" s="4"/>
+      <c r="P27" s="2">
+        <v>3.3329800000000001</v>
+      </c>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B28" s="9">
+        <f t="shared" si="5"/>
+        <v>0.20148367752532464</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1.055E-2</v>
+      </c>
+      <c r="E28" s="6">
+        <v>10.636900000000001</v>
+      </c>
+      <c r="F28" s="6">
+        <v>13.302942</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="28">
+        <v>1.76088265923015E-4</v>
+      </c>
+      <c r="I28" s="26">
+        <v>1.06229E-4</v>
+      </c>
+      <c r="J28" s="5">
+        <v>1.00448E-4</v>
+      </c>
+      <c r="K28" s="5">
+        <f t="shared" ref="K28:K39" si="9">P28*$T$4*$W$3*1E-24</f>
+        <v>1.1061240399999999E-4</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="6"/>
+        <v>0.60327131647967303</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="7"/>
+        <v>0.57044119023760176</v>
+      </c>
+      <c r="N28" s="9">
+        <f t="shared" si="8"/>
+        <v>0.62816453680314643</v>
+      </c>
+      <c r="P28" s="5">
+        <v>17.754799999999999</v>
+      </c>
+      <c r="Q28" s="5"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1.5</v>
+      </c>
+      <c r="B29" s="11">
+        <f t="shared" si="5"/>
+        <v>0.60445103257597399</v>
+      </c>
+      <c r="C29" s="12">
+        <v>3.1649999999999998E-2</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="13">
+        <v>6.1412170000000001</v>
+      </c>
+      <c r="F29" s="13">
+        <v>7.6804569999999996</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="27">
+        <v>5.2684723504348998E-4</v>
+      </c>
+      <c r="I29" s="22">
+        <v>3.3353199999999999E-4</v>
+      </c>
+      <c r="J29" s="2">
+        <v>3.2863E-4</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="9"/>
+        <v>3.3546182599999996E-4</v>
+      </c>
+      <c r="L29" s="11">
+        <f t="shared" si="6"/>
+        <v>0.63307155815758953</v>
+      </c>
+      <c r="M29" s="11">
+        <f t="shared" si="7"/>
+        <v>0.62376715324864973</v>
+      </c>
+      <c r="N29" s="11">
+        <f t="shared" si="8"/>
+        <v>0.63673452888541471</v>
+      </c>
+      <c r="O29" s="4"/>
+      <c r="P29" s="2">
+        <v>53.846200000000003</v>
+      </c>
+      <c r="Q29" s="2"/>
+    </row>
+    <row r="30" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>15</v>
+      </c>
+      <c r="B30" s="9">
+        <f t="shared" si="5"/>
+        <v>6.044510325759739</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.31649699999999997</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1.9420230000000001</v>
+      </c>
+      <c r="F30" s="6">
+        <v>2.4287740000000002</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="28">
+        <v>5.02535867346246E-3</v>
+      </c>
+      <c r="I30" s="26">
+        <v>3.22792E-3</v>
+      </c>
+      <c r="J30" s="5">
+        <v>3.1989399999999999E-3</v>
+      </c>
+      <c r="K30" s="5">
+        <f t="shared" si="9"/>
+        <v>3.1236285499999998E-3</v>
+      </c>
+      <c r="L30" s="9">
+        <f t="shared" si="6"/>
+        <v>0.64232629146368392</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="7"/>
+        <v>0.63655953890271044</v>
+      </c>
+      <c r="N30" s="9">
+        <f t="shared" si="8"/>
+        <v>0.62157325535688124</v>
+      </c>
+      <c r="P30" s="5">
+        <v>501.38499999999999</v>
+      </c>
+      <c r="Q30" s="5"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11">
+        <f t="shared" si="5"/>
+        <v>12.089020651519478</v>
+      </c>
+      <c r="C31" s="12">
+        <v>0.63299399999999995</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="13">
+        <v>1.373218</v>
+      </c>
+      <c r="F31" s="13">
+        <v>1.7174020000000001</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="27">
+        <v>9.6096776712520909E-3</v>
+      </c>
+      <c r="I31" s="25">
+        <v>6.4084199999999997E-3</v>
+      </c>
+      <c r="J31" s="2">
+        <v>6.4294499999999997E-3</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="9"/>
+        <v>6.2577857999999995E-3</v>
+      </c>
+      <c r="L31" s="11">
+        <f t="shared" si="6"/>
+        <v>0.66687148302290722</v>
+      </c>
+      <c r="M31" s="11">
+        <f t="shared" si="7"/>
+        <v>0.66905990189807019</v>
+      </c>
+      <c r="N31" s="11">
+        <f t="shared" si="8"/>
+        <v>0.65119622260802035</v>
+      </c>
+      <c r="O31" s="4"/>
+      <c r="P31" s="2">
+        <v>1004.46</v>
+      </c>
+      <c r="Q31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>60</v>
+      </c>
+      <c r="B32" s="9">
+        <f t="shared" si="5"/>
+        <v>24.178041303038956</v>
+      </c>
+      <c r="C32" s="10">
+        <v>1.265987</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0.97101199999999999</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1.2143870000000001</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="28">
+        <v>1.7956202904139199E-2</v>
+      </c>
+      <c r="I32" s="26">
+        <v>1.27028E-2</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1.26584E-2</v>
+      </c>
+      <c r="K32" s="5">
+        <f t="shared" si="9"/>
+        <v>1.2780408899999998E-2</v>
+      </c>
+      <c r="L32" s="9">
+        <f t="shared" si="6"/>
+        <v>0.70743241585178329</v>
+      </c>
+      <c r="M32" s="9">
+        <f t="shared" si="7"/>
+        <v>0.70495973272177892</v>
+      </c>
+      <c r="N32" s="9">
+        <f t="shared" si="8"/>
+        <v>0.71175453787358933</v>
+      </c>
+      <c r="P32" s="5">
+        <v>2051.4299999999998</v>
+      </c>
+      <c r="Q32" s="5"/>
+      <c r="S32" s="5"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>90</v>
+      </c>
+      <c r="B33" s="11">
+        <f t="shared" si="5"/>
+        <v>36.267061954558436</v>
+      </c>
+      <c r="C33" s="12">
+        <v>1.898981</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="13">
+        <v>0.79282799999999998</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0.99154299999999995</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="27">
+        <v>2.54716677488637E-2</v>
+      </c>
+      <c r="I33" s="22">
+        <v>1.8848799999999999E-2</v>
+      </c>
+      <c r="J33" s="2">
+        <v>1.8641399999999999E-2</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="9"/>
+        <v>1.83316504E-2</v>
+      </c>
+      <c r="L33" s="11">
+        <f t="shared" si="6"/>
+        <v>0.73999080805538731</v>
+      </c>
+      <c r="M33" s="11">
+        <f t="shared" si="7"/>
+        <v>0.73184842797863514</v>
+      </c>
+      <c r="N33" s="11">
+        <f t="shared" si="8"/>
+        <v>0.71968787363040965</v>
+      </c>
+      <c r="O33" s="4"/>
+      <c r="P33" s="2">
+        <v>2942.48</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+    </row>
+    <row r="34" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
+        <v>120</v>
+      </c>
+      <c r="B34" s="9">
+        <f t="shared" si="5"/>
+        <v>48.356082606077912</v>
+      </c>
+      <c r="C34" s="10">
+        <v>2.5319750000000001</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0.68660900000000002</v>
+      </c>
+      <c r="F34" s="6">
+        <v>0.85870100000000005</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="28">
+        <v>3.2417642839879697E-2</v>
+      </c>
+      <c r="I34" s="26">
+        <v>2.47298E-2</v>
+      </c>
+      <c r="J34" s="5">
+        <v>2.4878500000000001E-2</v>
+      </c>
+      <c r="K34" s="5">
+        <f t="shared" si="9"/>
+        <v>2.4631987099999999E-2</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" si="6"/>
+        <v>0.76285003577057653</v>
+      </c>
+      <c r="M34" s="9">
+        <f t="shared" si="7"/>
+        <v>0.76743704417012226</v>
+      </c>
+      <c r="N34" s="9">
+        <f t="shared" si="8"/>
+        <v>0.75983276210625961</v>
+      </c>
+      <c r="P34" s="5">
+        <v>3953.77</v>
+      </c>
+      <c r="Q34" s="5"/>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>150</v>
+      </c>
+      <c r="B35" s="11">
+        <f t="shared" si="5"/>
+        <v>60.445103257597395</v>
+      </c>
+      <c r="C35" s="12">
+        <v>3.1649690000000001</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="13">
+        <v>0.61412199999999995</v>
+      </c>
+      <c r="F35" s="13">
+        <v>0.76804600000000001</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="27">
+        <v>3.9055212834252402E-2</v>
+      </c>
+      <c r="I35" s="25">
+        <v>3.0672700000000001E-2</v>
+      </c>
+      <c r="J35" s="2">
+        <v>2.95511E-2</v>
+      </c>
+      <c r="K35" s="2">
+        <f t="shared" si="9"/>
+        <v>3.0206154999999998E-2</v>
+      </c>
+      <c r="L35" s="11">
+        <f t="shared" si="6"/>
+        <v>0.78536763146504407</v>
+      </c>
+      <c r="M35" s="11">
+        <f t="shared" si="7"/>
+        <v>0.7566493140214805</v>
+      </c>
+      <c r="N35" s="11">
+        <f t="shared" si="8"/>
+        <v>0.77342185096245186</v>
+      </c>
+      <c r="O35" s="4"/>
+      <c r="P35" s="2">
+        <v>4848.5</v>
+      </c>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
+        <v>250</v>
+      </c>
+      <c r="B36" s="9">
+        <f t="shared" si="5"/>
+        <v>100.74183876266233</v>
+      </c>
+      <c r="C36" s="10">
+        <v>5.2749480000000002</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.47569699999999998</v>
+      </c>
+      <c r="F36" s="6">
+        <v>0.59492599999999995</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="28">
+        <v>5.8983323870902299E-2</v>
+      </c>
+      <c r="I36" s="26">
+        <v>4.9196200000000002E-2</v>
+      </c>
+      <c r="J36" s="5">
+        <v>4.8565799999999999E-2</v>
+      </c>
+      <c r="K36" s="5">
+        <f t="shared" si="9"/>
+        <v>4.8230853299999994E-2</v>
+      </c>
+      <c r="L36" s="9">
+        <f t="shared" si="6"/>
+        <v>0.834069644967389</v>
+      </c>
+      <c r="M36" s="9">
+        <f t="shared" si="7"/>
+        <v>0.82338187834745813</v>
+      </c>
+      <c r="N36" s="9">
+        <f t="shared" si="8"/>
+        <v>0.81770321058141104</v>
+      </c>
+      <c r="P36" s="5">
+        <v>7741.71</v>
+      </c>
+      <c r="Q36" s="5"/>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>500</v>
+      </c>
+      <c r="B37" s="11">
+        <f t="shared" si="5"/>
+        <v>201.48367752532465</v>
+      </c>
+      <c r="C37" s="12">
+        <v>10.549896</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="13">
+        <v>0.336368</v>
+      </c>
+      <c r="F37" s="13">
+        <v>0.42067599999999999</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="27">
+        <v>0.103595084893309</v>
+      </c>
+      <c r="I37" s="25">
+        <v>9.2448600000000006E-2</v>
+      </c>
+      <c r="J37" s="2">
+        <v>8.9643600000000004E-2</v>
+      </c>
+      <c r="K37" s="2">
+        <f t="shared" si="9"/>
+        <v>8.8566302999999999E-2</v>
+      </c>
+      <c r="L37" s="11">
+        <f t="shared" si="6"/>
+        <v>0.89240334225519879</v>
+      </c>
+      <c r="M37" s="11">
+        <f t="shared" si="7"/>
+        <v>0.86532676808289299</v>
+      </c>
+      <c r="N37" s="11">
+        <f t="shared" si="8"/>
+        <v>0.85492765502545887</v>
+      </c>
+      <c r="O37" s="4"/>
+      <c r="P37" s="2">
+        <v>14216.1</v>
+      </c>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>750</v>
+      </c>
+      <c r="B38" s="9">
+        <f t="shared" si="5"/>
+        <v>302.22551628798698</v>
+      </c>
+      <c r="C38" s="10">
+        <v>15.824844000000001</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0.274644</v>
+      </c>
+      <c r="F38" s="6">
+        <v>0.34348000000000001</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="28">
+        <v>0.14519436153500101</v>
+      </c>
+      <c r="I38" s="26">
+        <v>0.133441</v>
+      </c>
+      <c r="J38" s="5">
+        <v>0.124949</v>
+      </c>
+      <c r="K38" s="5">
+        <f t="shared" si="9"/>
+        <v>0.12434955399999999</v>
+      </c>
+      <c r="L38" s="9">
+        <f t="shared" si="6"/>
+        <v>0.91905084046829388</v>
+      </c>
+      <c r="M38" s="9">
+        <f t="shared" si="7"/>
+        <v>0.86056372078801013</v>
+      </c>
+      <c r="N38" s="9">
+        <f t="shared" si="8"/>
+        <v>0.85643514448750746</v>
+      </c>
+      <c r="P38" s="5">
+        <v>19959.8</v>
+      </c>
+      <c r="Q38" s="5"/>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1000</v>
+      </c>
+      <c r="B39" s="11">
+        <f t="shared" si="5"/>
+        <v>402.9673550506493</v>
+      </c>
+      <c r="C39" s="12">
+        <v>21.09958</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="13">
+        <v>0.23785000000000001</v>
+      </c>
+      <c r="F39" s="13">
+        <v>0.29746400000000001</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="27">
+        <v>0.185920101577397</v>
+      </c>
+      <c r="I39" s="22">
+        <v>0.17522299999999999</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.1593</v>
+      </c>
+      <c r="K39" s="2">
+        <f t="shared" si="9"/>
+        <v>0.16219431200000001</v>
+      </c>
+      <c r="L39" s="11">
+        <f t="shared" si="6"/>
+        <v>0.94246398594536107</v>
+      </c>
+      <c r="M39" s="11">
+        <f t="shared" si="7"/>
+        <v>0.85681966957018219</v>
+      </c>
+      <c r="N39" s="11">
+        <f t="shared" si="8"/>
+        <v>0.87238717397365373</v>
+      </c>
+      <c r="O39" s="4"/>
+      <c r="P39" s="2">
+        <v>26034.400000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="I42" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J42" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="L42" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+      <c r="P42" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q42" s="8"/>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J43" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="7"/>
+      <c r="L43" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="M43" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="N43" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="O43" s="18"/>
+      <c r="P43" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>0.1</v>
+      </c>
+      <c r="B44" s="11">
+        <f t="shared" ref="B44:B56" si="10">A44*$Q$5</f>
+        <v>4.0296735505064935E-2</v>
+      </c>
+      <c r="C44" s="12">
+        <v>2.1099999999999999E-3</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="13">
+        <v>23.784832000000002</v>
+      </c>
+      <c r="F44" s="13">
+        <v>29.746282999999998</v>
+      </c>
+      <c r="G44" s="5"/>
+      <c r="H44">
+        <v>1.40420707746021</v>
+      </c>
+      <c r="I44" s="20"/>
+      <c r="J44" s="31">
+        <f>1.36234+0.0168074</f>
+        <v>1.3791474000000001</v>
+      </c>
+      <c r="K44" s="29">
+        <f t="shared" ref="K44:K53" si="11">P44*$T$4*$W$3*1E-24</f>
+        <v>1.3430197899999997E-8</v>
+      </c>
+      <c r="L44" s="11">
+        <f>I44/H44</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="11">
+        <f>J44/H44</f>
+        <v>0.98215385902659358</v>
+      </c>
+      <c r="N44" s="11">
+        <f t="shared" ref="N44:N56" si="12">K44/H44</f>
+        <v>9.5642573774027705E-9</v>
+      </c>
+      <c r="O44" s="4"/>
+      <c r="P44" s="29">
+        <v>2.1557299999999998E-3</v>
+      </c>
+      <c r="Q44" s="2"/>
+    </row>
+    <row r="45" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="B45" s="9">
+        <f t="shared" si="10"/>
+        <v>0.20148367752532464</v>
+      </c>
+      <c r="C45" s="10">
+        <v>1.055E-2</v>
+      </c>
+      <c r="E45" s="6">
+        <v>10.636900000000001</v>
+      </c>
+      <c r="F45" s="6">
+        <v>13.302942</v>
+      </c>
+      <c r="G45" s="5"/>
+      <c r="H45" s="4">
+        <v>1.4042408208581401</v>
+      </c>
+      <c r="I45" s="33"/>
+      <c r="J45" s="32">
+        <f>1.36221+0.0168081</f>
+        <v>1.3790180999999999</v>
+      </c>
+      <c r="K45" s="30">
+        <f t="shared" si="11"/>
+        <v>6.7190549999999991E-8</v>
+      </c>
+      <c r="L45" s="9">
+        <f t="shared" ref="L45:L56" si="13">I45/H45</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="9">
+        <f t="shared" ref="M45:M56" si="14">J45/H45</f>
+        <v>0.98203818000196974</v>
+      </c>
+      <c r="N45" s="9">
+        <f t="shared" si="12"/>
+        <v>4.7848309920900489E-8</v>
+      </c>
+      <c r="P45" s="30">
+        <v>1.0784999999999999E-2</v>
+      </c>
+      <c r="Q45" s="5"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1.5</v>
+      </c>
+      <c r="B46" s="11">
+        <f t="shared" si="10"/>
+        <v>0.60445103257597399</v>
+      </c>
+      <c r="C46" s="12">
+        <v>3.1649999999999998E-2</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="13">
+        <v>6.1412170000000001</v>
+      </c>
+      <c r="F46" s="13">
+        <v>7.6804569999999996</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46">
+        <v>1.4037049162311801</v>
+      </c>
+      <c r="I46" s="20"/>
+      <c r="J46" s="31">
+        <f>1.3621+ 0.0168032</f>
+        <v>1.3789032000000001</v>
+      </c>
+      <c r="K46" s="29">
+        <f t="shared" si="11"/>
+        <v>2.01536762E-7</v>
+      </c>
+      <c r="L46" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="11">
+        <f t="shared" si="14"/>
+        <v>0.98233124644332637</v>
+      </c>
+      <c r="N46" s="11">
+        <f t="shared" si="12"/>
+        <v>1.4357487793168658E-7</v>
+      </c>
+      <c r="O46" s="4"/>
+      <c r="P46" s="29">
+        <v>3.23494E-2</v>
+      </c>
+      <c r="Q46" s="2"/>
+    </row>
+    <row r="47" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>15</v>
+      </c>
+      <c r="B47" s="9">
+        <f t="shared" si="10"/>
+        <v>6.044510325759739</v>
+      </c>
+      <c r="C47" s="10">
+        <v>0.31649699999999997</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1.9420230000000001</v>
+      </c>
+      <c r="F47" s="6">
+        <v>2.4287740000000002</v>
+      </c>
+      <c r="G47" s="5"/>
+      <c r="H47" s="4">
+        <v>1.3978225806626601</v>
+      </c>
+      <c r="I47" s="33"/>
+      <c r="J47" s="32">
+        <f>1.35891+ 0.016749</f>
+        <v>1.375659</v>
+      </c>
+      <c r="K47" s="30">
+        <f t="shared" si="11"/>
+        <v>2.0174608999999998E-6</v>
+      </c>
+      <c r="L47" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="9">
+        <f t="shared" si="14"/>
+        <v>0.98414421045326572</v>
+      </c>
+      <c r="N47" s="9">
+        <f t="shared" si="12"/>
+        <v>1.4432882455251154E-6</v>
+      </c>
+      <c r="P47" s="30">
+        <v>0.32383000000000001</v>
+      </c>
+      <c r="Q47" s="5"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>30</v>
+      </c>
+      <c r="B48" s="11">
+        <f t="shared" si="10"/>
+        <v>12.089020651519478</v>
+      </c>
+      <c r="C48" s="12">
+        <v>0.63299399999999995</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="13">
+        <v>1.373218</v>
+      </c>
+      <c r="F48" s="13">
+        <v>1.7174020000000001</v>
+      </c>
+      <c r="G48" s="5"/>
+      <c r="H48">
+        <v>1.3935791421766499</v>
+      </c>
+      <c r="I48" s="16"/>
+      <c r="J48" s="31">
+        <f>1.35765 + 0.0167095</f>
+        <v>1.3743595</v>
+      </c>
+      <c r="K48" s="29">
+        <f t="shared" si="11"/>
+        <v>4.0416128199999999E-6</v>
+      </c>
+      <c r="L48" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="11">
+        <f t="shared" si="14"/>
+        <v>0.98620843151639703</v>
+      </c>
+      <c r="N48" s="11">
+        <f t="shared" si="12"/>
+        <v>2.9001674161736885E-6</v>
+      </c>
+      <c r="O48" s="4"/>
+      <c r="P48" s="29">
+        <v>0.64873400000000003</v>
+      </c>
+      <c r="Q48" s="2"/>
+    </row>
+    <row r="49" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>60</v>
+      </c>
+      <c r="B49" s="9">
+        <f t="shared" si="10"/>
+        <v>24.178041303038956</v>
+      </c>
+      <c r="C49" s="10">
+        <v>1.265987</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0.97101199999999999</v>
+      </c>
+      <c r="F49" s="6">
+        <v>1.2143870000000001</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="4">
+        <v>1.38536063754419</v>
+      </c>
+      <c r="I49" s="17"/>
+      <c r="J49" s="32">
+        <f>1.35209 + 0.0165954</f>
+        <v>1.3686853999999999</v>
+      </c>
+      <c r="K49" s="30">
+        <f t="shared" si="11"/>
+        <v>8.1020526999999998E-6</v>
+      </c>
+      <c r="L49" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="9">
+        <f t="shared" si="14"/>
+        <v>0.9879632515229031</v>
+      </c>
+      <c r="N49" s="9">
+        <f t="shared" si="12"/>
+        <v>5.8483347082550277E-6</v>
+      </c>
+      <c r="P49" s="30">
+        <v>1.3004899999999999</v>
+      </c>
+      <c r="Q49" s="5"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>90</v>
+      </c>
+      <c r="B50" s="11">
+        <f t="shared" si="10"/>
+        <v>36.267061954558436</v>
+      </c>
+      <c r="C50" s="12">
+        <v>1.898981</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="13">
+        <v>0.79282799999999998</v>
+      </c>
+      <c r="F50" s="13">
+        <v>0.99154299999999995</v>
+      </c>
+      <c r="G50" s="5"/>
+      <c r="H50">
+        <v>1.37856347972413</v>
+      </c>
+      <c r="I50" s="16"/>
+      <c r="J50" s="31">
+        <f>1.34678 +0.0164828</f>
+        <v>1.3632628</v>
+      </c>
+      <c r="K50" s="29">
+        <f t="shared" si="11"/>
+        <v>1.21776564E-5</v>
+      </c>
+      <c r="L50" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="11">
+        <f t="shared" si="14"/>
+        <v>0.98890099734312431</v>
+      </c>
+      <c r="N50" s="11">
+        <f t="shared" si="12"/>
+        <v>8.8335840743706049E-6</v>
+      </c>
+      <c r="O50" s="4"/>
+      <c r="P50" s="29">
+        <v>1.95468</v>
+      </c>
+      <c r="Q50" s="2"/>
+    </row>
+    <row r="51" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
+        <v>120</v>
+      </c>
+      <c r="B51" s="9">
+        <f t="shared" si="10"/>
+        <v>48.356082606077912</v>
+      </c>
+      <c r="C51" s="10">
+        <v>2.5319750000000001</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0.68660900000000002</v>
+      </c>
+      <c r="F51" s="6">
+        <v>0.85870100000000005</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="4">
+        <v>1.3699400435562701</v>
+      </c>
+      <c r="I51" s="17"/>
+      <c r="J51" s="32">
+        <f>1.34139 + 0.016384</f>
+        <v>1.357774</v>
+      </c>
+      <c r="K51" s="30">
+        <f t="shared" si="11"/>
+        <v>1.6280859E-5</v>
+      </c>
+      <c r="L51" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="9">
+        <f t="shared" si="14"/>
+        <v>0.99111928758233259</v>
+      </c>
+      <c r="N51" s="9">
+        <f t="shared" si="12"/>
+        <v>1.1884358791159948E-5</v>
+      </c>
+      <c r="P51" s="30">
+        <v>2.6133000000000002</v>
+      </c>
+      <c r="Q51" s="5"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>150</v>
+      </c>
+      <c r="B52" s="11">
+        <f t="shared" si="10"/>
+        <v>60.445103257597395</v>
+      </c>
+      <c r="C52" s="12">
+        <v>3.1649690000000001</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="13">
+        <v>0.61412199999999995</v>
+      </c>
+      <c r="F52" s="13">
+        <v>0.76804600000000001</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52">
+        <v>1.3618779251700099</v>
+      </c>
+      <c r="I52" s="16"/>
+      <c r="J52" s="31">
+        <f xml:space="preserve"> 1.33482 + 0.0162948</f>
+        <v>1.3511147999999999</v>
+      </c>
+      <c r="K52" s="29">
+        <f t="shared" si="11"/>
+        <v>2.0403748399999997E-5</v>
+      </c>
+      <c r="L52" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="11">
+        <f t="shared" si="14"/>
+        <v>0.9920968502601536</v>
+      </c>
+      <c r="N52" s="11">
+        <f t="shared" si="12"/>
+        <v>1.4982068526775552E-5</v>
+      </c>
+      <c r="O52" s="4"/>
+      <c r="P52" s="29">
+        <v>3.27508</v>
+      </c>
+      <c r="Q52" s="2"/>
+    </row>
+    <row r="53" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
+        <v>250</v>
+      </c>
+      <c r="B53" s="9">
+        <f t="shared" si="10"/>
+        <v>100.74183876266233</v>
+      </c>
+      <c r="C53" s="10">
+        <v>5.2749480000000002</v>
+      </c>
+      <c r="E53" s="6">
+        <v>0.47569699999999998</v>
+      </c>
+      <c r="F53" s="6">
+        <v>0.59492599999999995</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="4">
+        <v>1.34128105403747</v>
+      </c>
+      <c r="I53" s="17"/>
+      <c r="J53" s="32">
+        <f>1.32048+0.0159525</f>
+        <v>1.3364325000000001</v>
+      </c>
+      <c r="K53" s="30">
+        <f t="shared" si="11"/>
+        <v>3.4383432299999996E-5</v>
+      </c>
+      <c r="L53" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="9">
+        <f t="shared" si="14"/>
+        <v>0.99638513194317113</v>
+      </c>
+      <c r="N53" s="9">
+        <f t="shared" si="12"/>
+        <v>2.5634770726463613E-5</v>
+      </c>
+      <c r="P53" s="30">
+        <v>5.5190099999999997</v>
+      </c>
+      <c r="Q53" s="5"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>500</v>
+      </c>
+      <c r="B54" s="11">
+        <f t="shared" si="10"/>
+        <v>201.48367752532465</v>
+      </c>
+      <c r="C54" s="12">
+        <v>10.549896</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="13">
+        <v>0.336368</v>
+      </c>
+      <c r="F54" s="13">
+        <v>0.42067599999999999</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54">
+        <v>1.2896852557910301</v>
+      </c>
+      <c r="I54" s="16"/>
+      <c r="J54" s="31">
+        <f>1.28524+ 0.0151806</f>
+        <v>1.3004206</v>
+      </c>
+      <c r="K54" s="29">
+        <f>P54*$T$4*$W$3*1E-24</f>
+        <v>7.059213E-5</v>
+      </c>
+      <c r="L54" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="11">
+        <f t="shared" si="14"/>
+        <v>1.0083240032099037</v>
+      </c>
+      <c r="N54" s="11">
+        <f t="shared" si="12"/>
+        <v>5.473593629377598E-5</v>
+      </c>
+      <c r="O54" s="4"/>
+      <c r="P54" s="29">
+        <v>11.331</v>
+      </c>
+      <c r="Q54" s="2"/>
+    </row>
+    <row r="55" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
+        <v>750</v>
+      </c>
+      <c r="B55" s="9">
+        <f t="shared" si="10"/>
+        <v>302.22551628798698</v>
+      </c>
+      <c r="C55" s="10">
+        <v>15.824844000000001</v>
+      </c>
+      <c r="E55" s="6">
+        <v>0.274644</v>
+      </c>
+      <c r="F55" s="6">
+        <v>0.34348000000000001</v>
+      </c>
+      <c r="G55" s="5"/>
+      <c r="H55" s="4">
+        <v>1.24225887840578</v>
+      </c>
+      <c r="I55" s="17"/>
+      <c r="J55" s="32">
+        <f xml:space="preserve"> 1.25348 + 0.0144156</f>
+        <v>1.2678955999999999</v>
+      </c>
+      <c r="K55" s="30">
+        <f>P55*$T$4*$W$3*1E-24</f>
+        <v>1.09394439E-4</v>
+      </c>
+      <c r="L55" s="9">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="9">
+        <f t="shared" si="14"/>
+        <v>1.0206371812187167</v>
+      </c>
+      <c r="N55" s="9">
+        <f t="shared" si="12"/>
+        <v>8.8060903328288914E-5</v>
+      </c>
+      <c r="P55" s="30">
+        <v>17.5593</v>
+      </c>
+      <c r="Q55" s="5"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1000</v>
+      </c>
+      <c r="B56" s="11">
+        <f t="shared" si="10"/>
+        <v>402.9673550506493</v>
+      </c>
+      <c r="C56" s="12">
+        <v>21.09958</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="13">
+        <v>0.23785000000000001</v>
+      </c>
+      <c r="F56" s="13">
+        <v>0.29746400000000001</v>
+      </c>
+      <c r="G56" s="5"/>
+      <c r="H56">
+        <v>1.1938794039418501</v>
+      </c>
+      <c r="I56" s="16"/>
+      <c r="J56" s="31">
+        <f xml:space="preserve"> 1.22694+ 0.0136957</f>
+        <v>1.2406356999999999</v>
+      </c>
+      <c r="K56" s="29">
+        <f>P56*$T$4*$W$3*1E-24</f>
+        <v>1.5084512099999999E-4</v>
+      </c>
+      <c r="L56" s="11">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="11">
+        <f t="shared" si="14"/>
+        <v>1.0391633324972136</v>
+      </c>
+      <c r="N56" s="11">
+        <f t="shared" si="12"/>
+        <v>1.263487086735497E-4</v>
+      </c>
+      <c r="O56" s="4"/>
+      <c r="P56" s="29">
+        <v>24.212700000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>